--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +662,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1197300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1014300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1206100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1192100</v>
       </c>
-      <c r="G8" s="3">
-        <v>1219200</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>1099400</v>
+      </c>
+      <c r="J8" s="3">
         <v>923600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1154400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1107900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>979600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>646200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>656800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>596000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>688400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>688500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>641300</v>
+      </c>
+      <c r="F9" s="3">
         <v>581900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>655600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>647400</v>
       </c>
-      <c r="G9" s="3">
-        <v>677300</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>607700</v>
+      </c>
+      <c r="J9" s="3">
         <v>527100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>625600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>575500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>594800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>380300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>422400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>379800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>423200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>561500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>556000</v>
+      </c>
+      <c r="F10" s="3">
         <v>432400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>550500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>544700</v>
       </c>
-      <c r="G10" s="3">
-        <v>541900</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>491700</v>
+      </c>
+      <c r="J10" s="3">
         <v>396500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>528800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>532400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>384800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>265900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>234400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>216200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>265200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +903,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>76400</v>
+      </c>
+      <c r="F12" s="3">
         <v>77400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>73100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>71200</v>
       </c>
-      <c r="G12" s="3">
-        <v>77700</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>76800</v>
+      </c>
+      <c r="J12" s="3">
         <v>70100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>75900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>64900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>51100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>30200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>32000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>28200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>36500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,52 +999,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="E14" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>18600</v>
+      </c>
+      <c r="G14" s="3">
         <v>27200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>21700</v>
       </c>
-      <c r="G14" s="3">
-        <v>62800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>47600</v>
-      </c>
       <c r="I14" s="3">
+        <v>62900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K14" s="3">
         <v>148700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-10600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>102800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>53200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>23400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>9200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>28700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1099,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>958600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1085200</v>
+      </c>
+      <c r="F17" s="3">
         <v>854400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>938300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>910300</v>
       </c>
-      <c r="G17" s="3">
-        <v>1019300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>817900</v>
-      </c>
       <c r="I17" s="3">
+        <v>921900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>818500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1021100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>782900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>906600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>572100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>590900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>524600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>646000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>291400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>112100</v>
+      </c>
+      <c r="F18" s="3">
         <v>159900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>267800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>281800</v>
       </c>
-      <c r="G18" s="3">
-        <v>199900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>105700</v>
-      </c>
       <c r="I18" s="3">
+        <v>177500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K18" s="3">
         <v>133300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>325000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>73000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>74100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>65900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>71400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>42400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,228 +1240,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>600</v>
-      </c>
       <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-29200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-13200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>150400</v>
+      </c>
+      <c r="F21" s="3">
         <v>197700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>301700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>315700</v>
       </c>
-      <c r="G21" s="3">
-        <v>251800</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>235700</v>
+      </c>
+      <c r="J21" s="3">
         <v>144100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>171900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>359400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>85600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>102800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>91700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>93700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>54600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44800</v>
+      </c>
+      <c r="F22" s="3">
         <v>41600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>39500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>34500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>32800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>33400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>34400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>33900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>28700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>18400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>17200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>15700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>17100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>248400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>66600</v>
+      </c>
+      <c r="F23" s="3">
         <v>119500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>225000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>243900</v>
       </c>
-      <c r="G23" s="3">
-        <v>162200</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>146100</v>
+      </c>
+      <c r="J23" s="3">
         <v>72900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>98700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>290700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>15100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>59300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>52000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>54400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F24" s="3">
         <v>8700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>30600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>36300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="J24" s="3">
         <v>22000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>60500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-52900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-11600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F26" s="3">
         <v>110800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>194400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>207600</v>
       </c>
-      <c r="G26" s="3">
-        <v>179100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>156700</v>
+      </c>
+      <c r="J26" s="3">
         <v>50900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>99800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>230200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>68000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>70900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>48700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>45000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F27" s="3">
         <v>111400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>192100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>205400</v>
       </c>
-      <c r="G27" s="3">
-        <v>176100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>153800</v>
+      </c>
+      <c r="J27" s="3">
         <v>48600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>96600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>226800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>67700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>70000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>47900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>44400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,52 +1686,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F29" s="3">
         <v>-21300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-18100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>9600</v>
       </c>
-      <c r="G29" s="3">
-        <v>-144500</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>-127400</v>
+      </c>
+      <c r="J29" s="3">
         <v>6400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>32700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>38600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>463100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-15100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>26600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-168800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>7000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-600</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>29200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>13200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F33" s="3">
         <v>90100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>174000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>215000</v>
       </c>
-      <c r="G33" s="3">
-        <v>31600</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J33" s="3">
         <v>55000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>129300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>265400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>530800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>54900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>74500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-124400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>15800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F35" s="3">
         <v>90100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>174000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>215000</v>
       </c>
-      <c r="G35" s="3">
-        <v>31600</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J35" s="3">
         <v>55000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>129300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>265400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>530800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>54900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>74500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-124400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>15800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,52 +2135,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>436200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>339100</v>
+      </c>
+      <c r="F41" s="3">
         <v>419700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>83400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>109500</v>
       </c>
-      <c r="G41" s="3">
-        <v>161700</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>134400</v>
+      </c>
+      <c r="J41" s="3">
         <v>176500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>326400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>359700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>283000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>93800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>113200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>96100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>64200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2052,184 +2231,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2460100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2231200</v>
+      </c>
+      <c r="F43" s="3">
         <v>2001100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2384000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2530200</v>
       </c>
-      <c r="G43" s="3">
-        <v>2285200</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>2143800</v>
+      </c>
+      <c r="J43" s="3">
         <v>1901900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2194100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2399700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2043500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1457600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1442300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1630600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1692500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1062700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1167400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1153400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1137100</v>
       </c>
-      <c r="G44" s="3">
-        <v>1097300</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>1025500</v>
+      </c>
+      <c r="J44" s="3">
         <v>995400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>958700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1035200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>992500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>614800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>546300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>526400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>478900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>487500</v>
+      </c>
+      <c r="F45" s="3">
         <v>489400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>476200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>427300</v>
       </c>
-      <c r="G45" s="3">
-        <v>486000</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>726500</v>
+      </c>
+      <c r="J45" s="3">
         <v>417400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>513800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>541000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>333700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1408000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1384000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1301100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>613600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4472000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4074800</v>
+      </c>
+      <c r="F46" s="3">
         <v>4077600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4097000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4204100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4030200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3491200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3993000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4335600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3652700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3574200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3485800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3554200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2849200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2246,122 +2455,140 @@
         <v>700</v>
       </c>
       <c r="H47" s="3">
+        <v>700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>700</v>
+      </c>
+      <c r="J47" s="3">
         <v>81900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>891500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>922700</v>
+      </c>
+      <c r="F48" s="3">
         <v>895300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>896100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>909300</v>
       </c>
-      <c r="G48" s="3">
-        <v>1032600</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>2270700</v>
+      </c>
+      <c r="J48" s="3">
         <v>1002700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1014300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1030400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1025200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>547000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>538300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>535100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2315600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4071300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4096500</v>
+      </c>
+      <c r="F49" s="3">
         <v>4098700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4142800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4150600</v>
       </c>
-      <c r="G49" s="3">
-        <v>4172400</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
+        <v>4171500</v>
+      </c>
+      <c r="J49" s="3">
         <v>4206300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3974000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4048000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3830700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1276900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1264600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1235400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1218600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>753700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>778000</v>
+      </c>
+      <c r="F52" s="3">
         <v>731500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>687900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>681300</v>
       </c>
-      <c r="G52" s="3">
-        <v>738400</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="J52" s="3">
         <v>624800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>735400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>733600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>696300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>657300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>694300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>710600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1532400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10189200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9872700</v>
+      </c>
+      <c r="F54" s="3">
         <v>9803800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9824500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9946000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9974300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9406900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9718200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10149100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9206300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6056800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5984300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6036300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6139300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2875,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>838400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900100</v>
+      </c>
+      <c r="F57" s="3">
         <v>667000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>785700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>884500</v>
       </c>
-      <c r="G57" s="3">
-        <v>867500</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>795500</v>
+      </c>
+      <c r="J57" s="3">
         <v>784200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>947200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>914100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>714200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>437700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>433500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>390900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>317400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>250200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>227700</v>
+      </c>
+      <c r="F58" s="3">
         <v>553600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1094200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>993800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>547700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>149400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>174500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>328900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>192600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>214200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>192500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>217300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>94200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1367900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1596100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1350200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1459300</v>
       </c>
-      <c r="G59" s="3">
-        <v>1578200</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>1650200</v>
+      </c>
+      <c r="J59" s="3">
         <v>1337900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1326600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1443000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1302600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>978700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>915900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>880600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1341300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2456500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2723900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2521500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3230100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3337600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2993400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2271500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2448300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2686000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2209400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1630600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1541900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1488800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1438200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3531800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3031100</v>
+      </c>
+      <c r="F61" s="3">
         <v>3032400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2144300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2145000</v>
       </c>
-      <c r="G61" s="3">
-        <v>2179000</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="J61" s="3">
         <v>2593300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2892900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2993200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2993000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1492900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1592300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1790400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1798800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1498200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1556300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1570600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1655200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1671600</v>
       </c>
-      <c r="G62" s="3">
-        <v>1591500</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>1625500</v>
+      </c>
+      <c r="J62" s="3">
         <v>1463800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1351300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1455200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1296800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>798100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>823400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>865700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>909300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7513800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7340400</v>
+      </c>
+      <c r="F66" s="3">
         <v>7154600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7060900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7185000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6853200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6360500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6722000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7162500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6524500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3936500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3972400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4159000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4181600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4337900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4188800</v>
+      </c>
+      <c r="F72" s="3">
         <v>4249000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4210500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4088400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4334300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4355100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4304700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4197300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3952400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3444600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3411700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3359100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3505500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2675400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2532300</v>
+      </c>
+      <c r="F76" s="3">
         <v>2649200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2763600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2761000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3121100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3046400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2996200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2986600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2681800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2120300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2011900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1877300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1957700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F81" s="3">
         <v>90100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>174000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>215000</v>
       </c>
-      <c r="G81" s="3">
-        <v>31600</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J81" s="3">
         <v>55000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>129300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>265400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>530800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>54900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>74500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-124400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>15800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F83" s="3">
         <v>36600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>37200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>37300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>43500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>42400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>43200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>39100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>25100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>22500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>23600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>35600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-328300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>458900</v>
+      </c>
+      <c r="F89" s="3">
         <v>255100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>51700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-277200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-45600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>220600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>271800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-78400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>16000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>59400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>295000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-34900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>109700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-21300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-16400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-19100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-110600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-14800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-48400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-16400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-12200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-44100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-56400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-24200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-93400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-41400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-41200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>45100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>14200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-32900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-31100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-38000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,25 +4610,27 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-52300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-52800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-22300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-22300</v>
       </c>
       <c r="I96" s="3">
         <v>-22300</v>
@@ -4172,7 +4639,7 @@
         <v>-22300</v>
       </c>
       <c r="K96" s="3">
-        <v>-22200</v>
+        <v>-22300</v>
       </c>
       <c r="L96" s="3">
         <v>-22300</v>
@@ -4181,7 +4648,7 @@
         <v>-22200</v>
       </c>
       <c r="N96" s="3">
-        <v>-22100</v>
+        <v>-22300</v>
       </c>
       <c r="O96" s="3">
         <v>-22200</v>
@@ -4189,8 +4656,14 @@
       <c r="P96" s="3">
         <v>-22100</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-22100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>474800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-461800</v>
+      </c>
+      <c r="F100" s="3">
         <v>135700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-48500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>250400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>122200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-330300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-269100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>113900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1457400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-94500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-246300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>96500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-136600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>5200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="F102" s="3">
         <v>336300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-26100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-52200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-14800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-149900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-33300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>76700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>189200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-19400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>17100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>31900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-66500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +662,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1155300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1250000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1197300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1014300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1206100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1192100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1099400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>923600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1154400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1107900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>979600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>646200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>656800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>596000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>688400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>632600</v>
+      </c>
+      <c r="E9" s="3">
         <v>688500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>641300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>581900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>655600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>647400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>607700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>527100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>625600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>575500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>594800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>380300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>422400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>379800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>423200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>522700</v>
+      </c>
+      <c r="E10" s="3">
         <v>561500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>556000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>432400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>550500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>544700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>491700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>396500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>528800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>532400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>384800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>265900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>234400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>216200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>265200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +918,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E12" s="3">
         <v>67300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>76400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>77400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>73100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>71200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>76800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>70100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>75900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>64900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>32000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,58 +1022,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E14" s="3">
         <v>19600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>72500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>62900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>49800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>148700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-10600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>102800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>53200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>887400</v>
+      </c>
+      <c r="E17" s="3">
         <v>958600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1085200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>854400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>938300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>910300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>921900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>818500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1021100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>782900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>906600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>572100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>590900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>524600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>646000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>267900</v>
+      </c>
+      <c r="E18" s="3">
         <v>291400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>112100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>159900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>267800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>281800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>177500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>105100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>325000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>73000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>65900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,8 +1275,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1251,249 +1285,264 @@
         <v>-2200</v>
       </c>
       <c r="E20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-29200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>305800</v>
+      </c>
+      <c r="E21" s="3">
         <v>328300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>150400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>197700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>301700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>315700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>235700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>144100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>359400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>85600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>102800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>91700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>93700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>54600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E22" s="3">
         <v>40800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>44800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>41600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>39500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E23" s="3">
         <v>248400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>66600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>119500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>225000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>243900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>146100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>72900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>290700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>59300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>52000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>54400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E24" s="3">
         <v>34700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-10600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>60500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-52900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E26" s="3">
         <v>213700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>110800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>194400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>207600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>156700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>50900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>99800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>230200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>68000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>70900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E27" s="3">
         <v>213700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>111400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>192100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>205400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>153800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>96600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>226800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>70000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,58 +1750,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E29" s="3">
         <v>-7500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-33500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-21300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-18100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>9600</v>
       </c>
-      <c r="I29" s="3">
-        <v>-127400</v>
-      </c>
       <c r="J29" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="K29" s="3">
         <v>6400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>32700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>38600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>463100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-15100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>26600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-168800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>7000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,8 +1909,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1851,99 +1921,105 @@
         <v>2200</v>
       </c>
       <c r="E32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>29200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E33" s="3">
         <v>206200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>90100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>174000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>215000</v>
       </c>
-      <c r="I33" s="3">
-        <v>26400</v>
-      </c>
       <c r="J33" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K33" s="3">
         <v>55000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>129300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>265400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>530800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-124400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E35" s="3">
         <v>206200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>90100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>174000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>215000</v>
       </c>
-      <c r="I35" s="3">
-        <v>26400</v>
-      </c>
       <c r="J35" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K35" s="3">
         <v>55000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>129300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>265400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>530800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-124400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,58 +2223,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E41" s="3">
         <v>436200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>339100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>419700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>83400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>109500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>176500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>326400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>359700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>283000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>113200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>96100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>64200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2237,213 +2327,228 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2342400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2460100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2231200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2001100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2384000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2530200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2143800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1901900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2194100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2399700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2043500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1457600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1442300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1630600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1692500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1138500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1062700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1017000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1167400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1153400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1137100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1025500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>995400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>958700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1035200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>992500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>614800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>546300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>526400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>478900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>464600</v>
+      </c>
+      <c r="E45" s="3">
         <v>513000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>487500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>489400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>476200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>427300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>726500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>417400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>513800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>541000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>333700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1408000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1384000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1301100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>613600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4288200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4472000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4074800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4077600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4097000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4204100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4030200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3491200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3993000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4335600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3652700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3574200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3485800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3554200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2849200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E47" s="3">
         <v>700</v>
@@ -2461,134 +2566,143 @@
         <v>700</v>
       </c>
       <c r="J47" s="3">
+        <v>700</v>
+      </c>
+      <c r="K47" s="3">
         <v>81900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1500</v>
       </c>
       <c r="L47" s="3">
         <v>1500</v>
       </c>
       <c r="M47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N47" s="3">
         <v>1400</v>
       </c>
       <c r="O47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P47" s="3">
         <v>1300</v>
-      </c>
-      <c r="P47" s="3">
-        <v>1000</v>
       </c>
       <c r="Q47" s="3">
         <v>1000</v>
       </c>
       <c r="R47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>884300</v>
+      </c>
+      <c r="E48" s="3">
         <v>891500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>922700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>895300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>896100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>909300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2270700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1002700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1014300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1030400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1025200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>547000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>538300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>535100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2315600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4064600</v>
+      </c>
+      <c r="E49" s="3">
         <v>4071300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4096500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4098700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4142800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4150600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4171500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4206300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3974000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4048000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3830700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1276900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1264600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1235400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1218600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>754900</v>
+      </c>
+      <c r="E52" s="3">
         <v>753700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>778000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>731500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>687900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>681300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1015000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>624800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>735400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>733600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>696300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>657300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>694300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>710600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1532400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9993700</v>
+      </c>
+      <c r="E54" s="3">
         <v>10189200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9872700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9803800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9824500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9946000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9974300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9406900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9718200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10149100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9206300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6056800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5984300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6036300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6139300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>842200</v>
+      </c>
+      <c r="E57" s="3">
         <v>838400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>667000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>785700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>884500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>795500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>784200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>947200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>914100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>714200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>437700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>433500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>390900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>317400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>505900</v>
+      </c>
+      <c r="E58" s="3">
         <v>250200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>227700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>553600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1094200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>993800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>547700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>149400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>174500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>328900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>192600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>214200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>192500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>217300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>94200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1334800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1367900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1596100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1350200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1459300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1650200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1337900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1326600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1443000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1302600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>978700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>915900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>880600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1341300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2682900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2456500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2723900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2521500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3230100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3337600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2993400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2271500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2448300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2686000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2209400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1630600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1541900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1488800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1438200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3027500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3531800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3031100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3032400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2145000</v>
       </c>
       <c r="I61" s="3">
         <v>2145000</v>
       </c>
       <c r="J61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2593300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2892900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2993200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2993000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1492900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1592300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1790400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1798800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1432400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1498200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1556300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1570600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1655200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1671600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1625500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1463800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1351300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1455200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1296800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>798100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>823400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>865700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>909300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7171500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7513800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7340400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7154600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7060900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7185000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6853200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6360500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6722000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7162500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6524500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3936500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3972400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4159000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4181600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4465100</v>
+      </c>
+      <c r="E72" s="3">
         <v>4337900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4188800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4249000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4210500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4088400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4334300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4355100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4304700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4197300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3952400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3444600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3411700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3359100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3505500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2822200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2675400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2532300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2649200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2763600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2761000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3121100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3046400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2996200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2986600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2681800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2120300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2011900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1877300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1957700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E81" s="3">
         <v>206200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>90100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>174000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>215000</v>
       </c>
-      <c r="I81" s="3">
-        <v>26400</v>
-      </c>
       <c r="J81" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K81" s="3">
         <v>55000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>129300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>265400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>530800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-124400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E83" s="3">
         <v>39100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>36600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-328300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>458900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>255100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-277200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-45600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>220600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>271800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-78400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>59400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>295000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-110600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-44100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-76400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-93400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>45100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>14200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,28 +4845,29 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-57000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-52000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-52300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-52800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-22300</v>
       </c>
       <c r="J96" s="3">
         <v>-22300</v>
@@ -4645,25 +4879,28 @@
         <v>-22300</v>
       </c>
       <c r="M96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="N96" s="3">
         <v>-22200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-22300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-22200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-299900</v>
+      </c>
+      <c r="E100" s="3">
         <v>474800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-461800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>135700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>250400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>122200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-330300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-269100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>113900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1457400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-94500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-246300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>96500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-136600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E102" s="3">
         <v>97100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-80600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>336300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-52200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-149900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>76700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>189200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-66500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +662,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1084600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1155300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1250000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1197300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1014300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1206100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1192100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1099400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>923600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1154400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1107900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>979600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>646200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>656800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>596000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>688400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>618200</v>
+      </c>
+      <c r="E9" s="3">
         <v>632600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>688500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>641300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>581900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>655600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>647400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>607700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>527100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>625600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>575500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>594800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>380300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>422400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>379800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>423200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>466400</v>
+      </c>
+      <c r="E10" s="3">
         <v>522700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>561500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>556000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>432400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>550500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>544700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>491700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>396500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>528800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>532400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>384800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>265900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>234400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>216200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>265200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,61 +932,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E12" s="3">
         <v>64300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>76400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>77400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>73100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>71200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>76800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>70100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>64900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>51100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>32000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,61 +1042,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E14" s="3">
         <v>29200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>72500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>62900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>49800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>148700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-10600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>102800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>53200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>888600</v>
+      </c>
+      <c r="E17" s="3">
         <v>887400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>958600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1085200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>854400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>938300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>910300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>921900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>818500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1021100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>782900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>906600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>572100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>590900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>524600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>646000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E18" s="3">
         <v>267900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>291400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>112100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>159900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>267800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>281800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>177500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>105100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>133300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>325000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>73000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>71400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,273 +1309,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-11600</v>
       </c>
       <c r="E20" s="3">
         <v>-2200</v>
       </c>
       <c r="F20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-29200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E21" s="3">
         <v>305800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>328300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>150400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>197700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>301700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>315700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>235700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>171900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>359400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>85600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>102800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>91700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>93700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E22" s="3">
         <v>40700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>41600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>39500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>148900</v>
+      </c>
+      <c r="E23" s="3">
         <v>225000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>248400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>66600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>119500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>225000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>243900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>146100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>290700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>59300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>52000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>54400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E24" s="3">
         <v>29200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>60500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-52900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E26" s="3">
         <v>195800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>213700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>110800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>194400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>207600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>156700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>230200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>68000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>70900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E27" s="3">
         <v>194700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>213700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>111400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>192100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>205400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>153800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>96600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>226800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>70000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,61 +1811,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-10800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-7500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-33500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-21300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-18100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>9600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-112300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>6400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>32700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>38600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>463100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-15100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>26600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-168800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>7000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>11600</v>
       </c>
       <c r="E32" s="3">
         <v>2200</v>
       </c>
       <c r="F32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>29200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E33" s="3">
         <v>183900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>206200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>90100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>174000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>215000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>41500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>129300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>265400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>530800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-124400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E35" s="3">
         <v>183900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>206200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>90100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>174000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>215000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>41500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>129300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>265400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>530800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-124400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,61 +2310,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>297100</v>
+      </c>
+      <c r="E41" s="3">
         <v>342700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>436200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>339100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>419700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>83400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>109500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>326400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>359700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>283000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>113200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>96100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>64200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2330,220 +2420,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2137900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2342400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2460100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2231200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2001100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2384000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2530200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2143800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1901900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2194100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2399700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2043500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1457600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1442300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1630600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1692500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1155500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1138500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1062700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1017000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1167400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1153400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1137100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1025500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>995400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>958700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1035200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>992500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>614800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>546300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>526400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>478900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>424700</v>
+      </c>
+      <c r="E45" s="3">
         <v>464600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>513000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>487500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>489400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>476200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>427300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>726500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>417400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>513800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>541000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>333700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1408000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1384000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1301100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>613600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4015200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4288200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4472000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4074800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4077600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4097000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4204100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4030200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3491200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3993000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4335600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3652700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3574200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3485800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3554200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2849200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2551,7 +2656,7 @@
         <v>1700</v>
       </c>
       <c r="E47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="F47" s="3">
         <v>700</v>
@@ -2569,140 +2674,149 @@
         <v>700</v>
       </c>
       <c r="K47" s="3">
+        <v>700</v>
+      </c>
+      <c r="L47" s="3">
         <v>81900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1500</v>
       </c>
       <c r="M47" s="3">
         <v>1500</v>
       </c>
       <c r="N47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O47" s="3">
         <v>1400</v>
       </c>
       <c r="P47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1000</v>
       </c>
       <c r="R47" s="3">
         <v>1000</v>
       </c>
       <c r="S47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>889600</v>
+      </c>
+      <c r="E48" s="3">
         <v>884300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>891500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>922700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>895300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>896100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>909300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2270700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1002700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1014300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1030400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1025200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>547000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>538300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>535100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2315600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4074800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4064600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4071300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4096500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4098700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4142800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4150600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4171500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4206300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3974000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4048000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3830700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1276900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1264600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1235400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1218600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>790900</v>
+      </c>
+      <c r="E52" s="3">
         <v>754900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>753700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>778000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>731500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>687900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>681300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1015000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>624800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>735400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>733600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>696300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>657300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>694300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>710600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1532400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9772200</v>
+      </c>
+      <c r="E54" s="3">
         <v>9993700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10189200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9872700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9803800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9824500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9946000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9974300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9406900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9718200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10149100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9206300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6056800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5984300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6036300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6139300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,326 +3138,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>757200</v>
+      </c>
+      <c r="E57" s="3">
         <v>842200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>838400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>667000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>785700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>884500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>795500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>784200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>947200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>914100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>714200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>437700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>433500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>390900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>317400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E58" s="3">
         <v>505900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>250200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>227700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>553600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1094200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>993800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>547700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>149400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>174500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>328900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>192600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>214200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>192500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>217300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>94200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1334800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1367900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1596100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1350200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1459300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1650200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1337900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1326600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1443000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1302600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>978700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>915900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>880600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1341300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2368300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2682900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2456500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2723900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2521500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3230100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3337600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2993400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2271500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2448300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2686000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2209400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1630600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1541900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1488800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1438200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3028300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3027500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3531800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3031100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3032400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2145000</v>
       </c>
       <c r="J61" s="3">
         <v>2145000</v>
       </c>
       <c r="K61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="L61" s="3">
         <v>2593300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2892900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2993200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2993000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1492900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1592300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1790400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1798800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1407200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1432400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1498200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1556300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1570600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1655200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1671600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1625500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1463800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1351300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1455200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1296800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>798100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>823400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>865700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>909300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>6827700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7171500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7513800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7340400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7154600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7060900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7185000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6853200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6360500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6722000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7162500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6524500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3936500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3972400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4159000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4181600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4519300</v>
+      </c>
+      <c r="E72" s="3">
         <v>4465100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4337900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4188800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4249000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4210500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4088400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4334300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4355100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4304700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4197300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3952400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3444600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3411700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3359100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3505500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2944500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2822200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2675400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2532300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2649200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2763600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2761000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3121100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3046400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2996200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2986600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2681800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2120300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2011900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1877300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1957700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E81" s="3">
         <v>183900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>206200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>90100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>174000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>215000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>41500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>129300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>265400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>530800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-124400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E83" s="3">
         <v>40100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>340900</v>
+      </c>
+      <c r="E89" s="3">
         <v>234600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-328300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>458900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>255100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>51700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-277200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-45600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>220600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>271800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-78400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>295000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-34900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-110600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-44100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-76400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-93400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>45100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>14200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,31 +5079,32 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-57100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-57000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-52000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-52300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-52800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-22300</v>
       </c>
       <c r="K96" s="3">
         <v>-22300</v>
@@ -4882,25 +5116,28 @@
         <v>-22300</v>
       </c>
       <c r="N96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="O96" s="3">
         <v>-22200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-22300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-361300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-299900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>474800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-461800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>135700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-48500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>250400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>122200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-330300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-269100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>113900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1457400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-94500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-246300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>96500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-136600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-93500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>97100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-80600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>336300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-52200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-149900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>76700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>189200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-66500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,257 +662,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1152200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1084600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1155300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1250000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1197300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1014300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1206100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1192100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1099400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>923600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1154400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1107900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>979600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>646200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>656800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>596000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>688400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>650800</v>
+      </c>
+      <c r="E9" s="3">
         <v>618200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>632600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>688500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>641300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>581900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>655600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>647400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>607700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>527100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>625600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>575500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>594800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>380300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>422400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>379800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>423200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>501400</v>
+      </c>
+      <c r="E10" s="3">
         <v>466400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>522700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>561500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>556000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>432400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>550500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>544700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>491700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>396500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>528800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>532400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>384800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>265900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>234400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>216200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>265200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,64 +945,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E12" s="3">
         <v>71700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>64300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>67300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>76400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>77400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>73100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>71200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>76800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>70100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>75900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>30200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>32000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>36500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,64 +1061,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E14" s="3">
         <v>21300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>29200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>72500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>62900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>49800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>148700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-10600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>102800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>53200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>28700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,8 +1179,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1005300</v>
+      </c>
+      <c r="E17" s="3">
         <v>888600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>887400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>958600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1085200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>854400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>938300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>910300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>921900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>818500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1021100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>782900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>906600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>572100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>590900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>524600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>646000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E18" s="3">
         <v>196000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>267900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>291400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>112100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>159900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>267800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>281800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>177500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>105100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>133300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>325000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>73000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>65900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>71400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,288 +1342,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2200</v>
       </c>
       <c r="F20" s="3">
         <v>-2200</v>
       </c>
       <c r="G20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-29200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E21" s="3">
         <v>225900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>305800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>328300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>150400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>197700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>301700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>315700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>235700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>171900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>359400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>85600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>102800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>91700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>93700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E22" s="3">
         <v>35500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>41600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E23" s="3">
         <v>148900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>225000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>248400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>66600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>119500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>225000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>243900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>146100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>290700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>54400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E24" s="3">
         <v>18400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>60500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-52900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E26" s="3">
         <v>130500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>195800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>213700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>110800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>194400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>207600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>156700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>230200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>70900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E27" s="3">
         <v>129500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>194700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>213700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>111400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>192100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>205400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>153800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>96600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>226800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>70000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>44400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,64 +1871,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-18400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-10800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-7500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-33500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-21300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-18100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>9600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-112300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>6400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>32700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>38600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>463100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>26600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-168800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>7000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1982,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E32" s="3">
         <v>11600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2200</v>
       </c>
       <c r="F32" s="3">
         <v>2200</v>
       </c>
       <c r="G32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>29200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E33" s="3">
         <v>111100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>183900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>206200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>90100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>174000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>215000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>55000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>129300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>265400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>530800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>74500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-124400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2150,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E35" s="3">
         <v>111100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>183900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>206200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>90100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>174000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>215000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>55000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>129300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>265400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>530800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>74500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-124400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2311,64 +2396,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>568900</v>
+      </c>
+      <c r="E41" s="3">
         <v>297100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>342700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>436200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>339100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>419700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>83400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>109500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>326400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>359700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>283000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>113200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>96100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>64200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2423,243 +2512,258 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2330300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2137900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2342400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2460100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2231200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2001100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2384000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2530200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2143800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1901900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2194100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2399700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2043500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1457600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1442300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1630600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1692500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1155500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1138500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1062700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1017000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1167400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1153400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1137100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1025500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>995400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>958700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1035200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>992500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>614800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>546300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>526400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>478900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>380800</v>
+      </c>
+      <c r="E45" s="3">
         <v>424700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>464600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>513000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>487500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>489400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>476200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>427300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>726500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>417400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>513800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>541000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>333700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1384000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1301100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>613600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4375600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4015200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4288200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4472000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4074800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4077600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4097000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4204100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4030200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3491200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3993000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4335600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3652700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3574200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3485800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3554200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2849200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
         <v>1700</v>
       </c>
       <c r="F47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="G47" s="3">
         <v>700</v>
@@ -2677,146 +2781,155 @@
         <v>700</v>
       </c>
       <c r="L47" s="3">
+        <v>700</v>
+      </c>
+      <c r="M47" s="3">
         <v>81900</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1500</v>
       </c>
       <c r="N47" s="3">
         <v>1500</v>
       </c>
       <c r="O47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P47" s="3">
         <v>1400</v>
       </c>
       <c r="Q47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R47" s="3">
         <v>1300</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1000</v>
       </c>
       <c r="S47" s="3">
         <v>1000</v>
       </c>
       <c r="T47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>919000</v>
+      </c>
+      <c r="E48" s="3">
         <v>889600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>884300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>891500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>922700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>895300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>896100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>909300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2270700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1002700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1014300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1030400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1025200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>547000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>538300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>535100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2315600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4094100</v>
+      </c>
+      <c r="E49" s="3">
         <v>4074800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4064600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4071300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4096500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4098700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4142800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4150600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4171500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4206300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3974000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4048000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3830700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1276900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1264600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1235400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1218600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2927,64 +3043,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>794600</v>
+      </c>
+      <c r="E52" s="3">
         <v>790900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>754900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>753700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>778000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>731500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>687900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>681300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1015000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>624800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>735400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>733600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>696300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>657300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>694300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>710600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1532400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3039,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10186400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9772200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9993700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10189200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9872700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9803800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9824500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9946000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9974300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9406900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9718200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10149100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9206300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6056800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5984300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6036300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6139300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3117,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3139,344 +3268,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>946700</v>
+      </c>
+      <c r="E57" s="3">
         <v>757200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>842200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>838400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>667000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>785700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>884500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>795500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>784200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>947200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>914100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>714200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>437700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>433500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>390900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>317400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>338300</v>
+      </c>
+      <c r="E58" s="3">
         <v>194100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>505900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>250200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>227700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>553600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1094200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>993800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>547700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>149400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>174500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>328900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>192600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>214200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>192500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>217300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>94200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1417000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1334800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1367900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1596100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1350200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1459300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1650200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1337900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1326600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1443000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1302600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>978700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>915900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>880600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1341300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2829000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2368300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2682900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2456500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2723900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2521500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3230100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3337600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2993400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2271500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2448300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2686000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2209400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1630600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1541900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1488800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1438200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2929500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3028300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3027500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3531800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3031100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3032400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2145000</v>
       </c>
       <c r="K61" s="3">
         <v>2145000</v>
       </c>
       <c r="L61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="M61" s="3">
         <v>2593300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2892900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2993200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2993000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1492900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1592300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1790400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1798800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1443700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1407200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1432400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1498200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1556300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1570600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1655200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1671600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1625500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1463800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1351300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1455200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1296800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>798100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>823400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>865700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>909300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3531,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7224600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6827700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7171500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7513800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7340400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7154600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7060900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7185000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6853200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6360500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6722000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7162500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6524500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3936500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3972400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4159000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4181600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3721,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3777,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3833,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3889,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3945,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4506400</v>
+      </c>
+      <c r="E72" s="3">
         <v>4519300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4465100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4337900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4188800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4249000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4210500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4088400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4334300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4355100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4304700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4197300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3952400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3444600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3411700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3359100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3505500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4057,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4169,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2961800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2944500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2822200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2675400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2532300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2649200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2763600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2761000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3121100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3046400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2996200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2986600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2681800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2120300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2011900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1877300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1957700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4281,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E81" s="3">
         <v>111100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>183900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>206200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>90100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>174000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>215000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>55000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>129300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>265400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>530800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>74500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-124400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4420,64 +4617,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E83" s="3">
         <v>41500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>35600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4532,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4588,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4644,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4700,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4756,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>400600</v>
+      </c>
+      <c r="E89" s="3">
         <v>340900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>234600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-328300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>458900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>255100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-277200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-45600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>220600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>271800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-78400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>59400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>295000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-34900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4834,64 +5053,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-110600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4946,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5002,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-76400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-56400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-93400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>45100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>14200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5080,8 +5312,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5089,25 +5322,25 @@
         <v>-57200</v>
       </c>
       <c r="E96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-57100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-57000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-52000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-52300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-52800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-22300</v>
       </c>
       <c r="L96" s="3">
         <v>-22300</v>
@@ -5119,25 +5352,28 @@
         <v>-22300</v>
       </c>
       <c r="O96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="P96" s="3">
         <v>-22200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5192,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5248,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5304,172 +5546,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-361300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-299900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>474800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-461800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>135700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-48500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>250400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>122200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-330300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-269100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>113900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1457400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-94500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-246300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>96500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-136600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>271800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-93500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>97100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-80600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>336300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-52200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-149900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>76700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>189200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-66500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,269 +662,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1195600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1152200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1084600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1155300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1250000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1197300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1014300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1206100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1192100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1099400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>923600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1154400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1107900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>979600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>646200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>656800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>596000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>688400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>683200</v>
+      </c>
+      <c r="E9" s="3">
         <v>650800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>618200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>632600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>688500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>641300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>581900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>655600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>647400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>607700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>527100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>625600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>575500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>594800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>380300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>422400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>379800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>423200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>512400</v>
+      </c>
+      <c r="E10" s="3">
         <v>501400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>466400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>522700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>561500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>556000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>432400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>550500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>544700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>491700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>396500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>528800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>532400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>384800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>265900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>234400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>216200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>265200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,67 +959,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E12" s="3">
         <v>84600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>71700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>64300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>67300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>76400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>77400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>73100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>71200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>76800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>70100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>75900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>64900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>51100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>30200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>32000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>36500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,67 +1081,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E14" s="3">
         <v>78500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>72500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>62900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>49800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>148700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-10600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>102800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>53200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>28700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,8 +1205,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>934900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1005300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>888600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>887400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>958600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1085200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>854400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>938300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>910300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>921900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>818500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1021100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>782900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>906600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>572100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>590900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>524600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>646000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>260700</v>
+      </c>
+      <c r="E18" s="3">
         <v>146900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>196000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>267900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>291400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>112100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>159900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>267800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>281800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>177500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>105100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>133300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>325000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>73000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>65900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>71400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>42400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,303 +1376,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2200</v>
       </c>
       <c r="G20" s="3">
         <v>-2200</v>
       </c>
       <c r="H20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-13200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>298500</v>
+      </c>
+      <c r="E21" s="3">
         <v>183800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>225900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>305800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>328300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>150400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>197700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>301700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>315700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>235700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>171900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>359400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>85600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>102800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>91700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>93700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>54600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E22" s="3">
         <v>34300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>35500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>40800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>41600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>39500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>223500</v>
+      </c>
+      <c r="E23" s="3">
         <v>107500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>148900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>225000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>248400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>66600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>119500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>225000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>243900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>146100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>72900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>290700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>52000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>54400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E24" s="3">
         <v>68600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>34700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>60500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E26" s="3">
         <v>38900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>130500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>195800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>213700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>110800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>194400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>207600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>156700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>99800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>230200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>68000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>70900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>191500</v>
+      </c>
+      <c r="E27" s="3">
         <v>41000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>129500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>194700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>213700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>111400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>192100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>153800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>96600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>226800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>70000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>44400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,67 +1932,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E29" s="3">
         <v>8400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-18400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-10800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-7500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-33500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-21300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-18100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>9600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-112300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>6400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>32700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>38600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>463100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-15100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>26600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-168800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>7000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2200</v>
       </c>
       <c r="G32" s="3">
         <v>2200</v>
       </c>
       <c r="H32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>29200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>13200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E33" s="3">
         <v>49400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>111100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>183900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>206200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>90100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>174000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>215000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>55000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>129300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>265400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>530800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>74500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-124400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2228,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E35" s="3">
         <v>49400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>111100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>183900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>206200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>90100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>174000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>215000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>55000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>129300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>265400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>530800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>74500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-124400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2397,67 +2483,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>416700</v>
+      </c>
+      <c r="E41" s="3">
         <v>568900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>297100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>342700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>436200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>339100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>419700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>83400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>109500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>176500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>326400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>359700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>283000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>113200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>96100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>64200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2515,258 +2605,273 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2532800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2330300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2137900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2342400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2460100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2231200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2001100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2384000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2530200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2143800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1901900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2194100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2399700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2043500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1457600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1442300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1630600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1692500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1254700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1095600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1155500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1138500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1062700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1017000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1167400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1153400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1137100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1025500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>995400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>958700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1035200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>992500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>614800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>546300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>526400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>478900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>462900</v>
+      </c>
+      <c r="E45" s="3">
         <v>380800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>424700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>464600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>513000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>487500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>489400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>476200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>427300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>726500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>417400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>513800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>541000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>333700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1408000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1384000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1301100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>613600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4667100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4375600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4015200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4288200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4472000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4074800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4077600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4097000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4204100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4030200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3491200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3993000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4335600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3652700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3574200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3485800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3554200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2849200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1700</v>
       </c>
       <c r="F47" s="3">
         <v>1700</v>
       </c>
       <c r="G47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="H47" s="3">
         <v>700</v>
@@ -2784,152 +2889,161 @@
         <v>700</v>
       </c>
       <c r="M47" s="3">
+        <v>700</v>
+      </c>
+      <c r="N47" s="3">
         <v>81900</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1500</v>
       </c>
       <c r="O47" s="3">
         <v>1500</v>
       </c>
       <c r="P47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q47" s="3">
         <v>1400</v>
       </c>
       <c r="R47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S47" s="3">
         <v>1300</v>
-      </c>
-      <c r="S47" s="3">
-        <v>1000</v>
       </c>
       <c r="T47" s="3">
         <v>1000</v>
       </c>
       <c r="U47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>905700</v>
+      </c>
+      <c r="E48" s="3">
         <v>919000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>889600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>884300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>891500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>922700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>895300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>896100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>909300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2270700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1002700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1014300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1030400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1025200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>547000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>538300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>535100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2315600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4049900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4094100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4074800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4064600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4071300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4096500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4098700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4142800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4150600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4171500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4206300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3974000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4048000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3830700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1276900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1264600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1235400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1218600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3046,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>698400</v>
+      </c>
+      <c r="E52" s="3">
         <v>794600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>790900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>754900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>753700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>778000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>731500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>687900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>681300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1015000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>624800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>735400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>733600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>696300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>657300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>694300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>710600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1532400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3164,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10423300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10186400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9772200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9993700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10189200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9872700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9803800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9824500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9946000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9974300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9406900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9718200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10149100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9206300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6056800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5984300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6036300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6139300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3269,362 +3399,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1074400</v>
+      </c>
+      <c r="E57" s="3">
         <v>946700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>757200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>842200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>838400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>667000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>785700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>884500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>795500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>784200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>947200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>914100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>714200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>437700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>433500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>390900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>317400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>974400</v>
+      </c>
+      <c r="E58" s="3">
         <v>338300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>194100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>505900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>250200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>227700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>553600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1094200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>993800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>547700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>149400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>174500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>328900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>192600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>214200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>192500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>217300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>94200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1331300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1544000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1417000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1334800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1367900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1596100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1350200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1459300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1650200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1337900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1326600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1443000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1302600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>978700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>915900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>880600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1341300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3380100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2829000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2368300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2682900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2456500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2723900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2521500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3230100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3337600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2993400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2271500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2448300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2686000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2209400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1630600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1541900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1488800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1438200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2631400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2929500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3028300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3027500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3531800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3031100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3032400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>2145000</v>
       </c>
       <c r="L61" s="3">
         <v>2145000</v>
       </c>
       <c r="M61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="N61" s="3">
         <v>2593300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2892900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2993200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2993000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1492900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1592300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1790400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1798800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1380500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1443700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1407200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1432400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1498200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1556300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1570600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1655200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1671600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1625500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1463800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1351300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1455200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1296800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>798100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>823400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>865700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>909300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3800,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7414700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7224600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6827700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7171500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7513800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7340400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7154600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7060900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7185000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6853200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6360500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6722000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7162500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6524500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3936500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3972400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4159000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4181600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4118,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4627000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4506400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4519300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4465100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4337900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4188800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4249000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4210500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4088400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4334300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4355100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4304700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4197300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3952400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3444600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3411700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3359100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3505500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4354,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3008600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2961800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2944500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2822200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2675400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2532300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2649200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2763600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2761000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3121100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3046400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2996200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2986600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2681800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2120300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2011900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1877300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1957700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4472,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E81" s="3">
         <v>49400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>111100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>183900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>206200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>90100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>174000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>215000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>55000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>129300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>265400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>530800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>74500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-124400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4618,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E83" s="3">
         <v>42000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4972,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-303000</v>
+      </c>
+      <c r="E89" s="3">
         <v>400600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>340900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>234600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-328300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>458900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>255100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-277200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-45600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>220600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>271800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-78400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>59400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>295000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-34900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>109700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5054,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-110600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-44100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5231,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-76400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-56400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-93400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>45100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>14200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5313,37 +5546,38 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-57200</v>
+        <v>-62300</v>
       </c>
       <c r="E96" s="3">
         <v>-57200</v>
       </c>
       <c r="F96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-57100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-57000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-52000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-52300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-52800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-22300</v>
       </c>
       <c r="M96" s="3">
         <v>-22300</v>
@@ -5355,25 +5589,28 @@
         <v>-22300</v>
       </c>
       <c r="P96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5549,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>204700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-63900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-361300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-299900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>474800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-461800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>135700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>250400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>122200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-330300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-269100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>113900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1457400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-94500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-246300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>96500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-136600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-152200</v>
+      </c>
+      <c r="E102" s="3">
         <v>271800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-93500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>97100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-80600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>336300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-52200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-149900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>76700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>189200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-66500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,282 +662,295 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1195600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1152200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1084600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1155300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1250000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1197300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1014300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1206100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1192100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1099400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>923600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1154400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1107900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>979600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>646200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>656800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>596000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>688400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>710200</v>
+      </c>
+      <c r="E9" s="3">
         <v>683200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>650800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>618200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>632600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>688500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>641300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>581900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>655600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>647400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>607700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>527100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>625600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>575500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>594800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>380300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>422400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>379800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>423200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>531800</v>
+      </c>
+      <c r="E10" s="3">
         <v>512400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>501400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>466400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>522700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>561500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>556000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>432400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>550500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>544700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>491700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>396500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>528800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>532400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>384800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>265900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>234400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>216200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>265200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,70 +973,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E12" s="3">
         <v>74000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>84600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>71700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>64300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>67300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>76400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>77400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>73100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>71200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>76800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>70100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>75900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>64900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>51100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>30200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>32000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>36500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,70 +1101,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E14" s="3">
         <v>6700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>78500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>72500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>62900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>49800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>148700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>102800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>53200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>23400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>28700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1231,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>953400</v>
+      </c>
+      <c r="E17" s="3">
         <v>934900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1005300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>888600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>887400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>958600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1085200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>854400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>938300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>910300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>921900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>818500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1021100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>782900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>906600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>572100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>590900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>524600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>646000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>288600</v>
+      </c>
+      <c r="E18" s="3">
         <v>260700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>146900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>196000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>267900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>291400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>112100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>159900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>267800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>281800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>177500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>105100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>133300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>325000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>73000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>71400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>42400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,8 +1410,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1386,309 +1420,324 @@
         <v>-4800</v>
       </c>
       <c r="E20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2200</v>
       </c>
       <c r="H20" s="3">
         <v>-2200</v>
       </c>
       <c r="I20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-29200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-13200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E21" s="3">
         <v>298500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>183800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>225900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>305800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>328300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>150400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>197700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>301700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>315700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>235700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>171900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>359400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>85600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>102800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>91700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>93700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>54600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E22" s="3">
         <v>32400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>40700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>41600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>251200</v>
+      </c>
+      <c r="E23" s="3">
         <v>223500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>107500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>148900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>225000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>248400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>66600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>119500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>225000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>243900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>146100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>72900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>290700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>52000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>54400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E24" s="3">
         <v>32200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>68600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>60500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-52900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>217800</v>
+      </c>
+      <c r="E26" s="3">
         <v>191300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>130500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>195800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>213700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>110800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>194400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>207600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>156700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>99800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>230200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>68000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>70900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E27" s="3">
         <v>191500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>129500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>194700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>213700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>111400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>192100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>205400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>153800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>96600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>226800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>70000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>44400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1935,70 +1993,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-8100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>8400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-18400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-10800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-7500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-33500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-21300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-18100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>9600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-112300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>6400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>32700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>38600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>463100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-15100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>26600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-168800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>7000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,8 +2188,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2130,123 +2200,129 @@
         <v>4800</v>
       </c>
       <c r="E32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F32" s="3">
         <v>5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2200</v>
       </c>
       <c r="H32" s="3">
         <v>2200</v>
       </c>
       <c r="I32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>29200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>13200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E33" s="3">
         <v>183400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>49400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>111100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>183900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>206200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>90100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>174000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>215000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>55000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>129300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>265400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>530800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>74500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-124400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2307,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E35" s="3">
         <v>183400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>49400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>111100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>183900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>206200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>90100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>174000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>215000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>55000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>129300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>265400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>530800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>74500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-124400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2460,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2484,70 +2570,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>728500</v>
+      </c>
+      <c r="E41" s="3">
         <v>416700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>568900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>297100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>342700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>436200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>339100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>419700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>109500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>176500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>326400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>359700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>283000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>93800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>113200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>96100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>64200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2608,273 +2698,288 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2627300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2532800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2330300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2137900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2342400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2460100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2231200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2001100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2384000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2530200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2143800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1901900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2194100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2399700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2043500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1457600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1442300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1630600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1692500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1398100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1254700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1095600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1155500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1138500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1062700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1017000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1167400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1153400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1137100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1025500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>995400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>958700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1035200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>992500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>614800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>546300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>526400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>478900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>443400</v>
+      </c>
+      <c r="E45" s="3">
         <v>462900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>380800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>424700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>464600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>513000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>487500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>489400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>476200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>427300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>726500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>417400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>513800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>541000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>333700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1408000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1384000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1301100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>613600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5197300</v>
+      </c>
+      <c r="E46" s="3">
         <v>4667100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4375600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4015200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4288200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4472000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4074800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4077600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4097000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4204100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4030200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3491200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3993000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4335600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3652700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3574200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3485800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3554200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2849200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E47" s="3">
         <v>102200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1700</v>
       </c>
       <c r="G47" s="3">
         <v>1700</v>
       </c>
       <c r="H47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="I47" s="3">
         <v>700</v>
@@ -2892,158 +2997,167 @@
         <v>700</v>
       </c>
       <c r="N47" s="3">
+        <v>700</v>
+      </c>
+      <c r="O47" s="3">
         <v>81900</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1500</v>
       </c>
       <c r="P47" s="3">
         <v>1500</v>
       </c>
       <c r="Q47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="R47" s="3">
         <v>1400</v>
       </c>
       <c r="S47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T47" s="3">
         <v>1300</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1000</v>
       </c>
       <c r="U47" s="3">
         <v>1000</v>
       </c>
       <c r="V47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>925100</v>
+      </c>
+      <c r="E48" s="3">
         <v>905700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>919000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>889600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>884300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>891500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>922700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>895300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>896100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>909300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2270700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1002700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1014300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1030400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1025200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>547000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>538300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>535100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2315600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4040400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4049900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4094100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4074800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4064600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4071300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4096500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4098700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4142800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4150600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4171500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4206300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3974000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4048000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3830700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1276900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1264600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1235400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1218600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3166,70 +3283,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>697100</v>
+      </c>
+      <c r="E52" s="3">
         <v>698400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>794600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>790900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>754900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>753700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>778000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>731500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>687900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>681300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1015000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>624800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>735400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>733600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>696300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>657300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>694300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>710600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1532400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3290,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10942100</v>
+      </c>
+      <c r="E54" s="3">
         <v>10423300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10186400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9772200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9993700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10189200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9872700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9803800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9824500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9946000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9974300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9406900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9718200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10149100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9206300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6056800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5984300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6036300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6139300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3376,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3400,380 +3530,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1074400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>946700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>757200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>842200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>838400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>667000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>785700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>884500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>795500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>784200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>947200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>914100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>714200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>437700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>433500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>390900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>317400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1185800</v>
+      </c>
+      <c r="E58" s="3">
         <v>974400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>338300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>194100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>505900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>250200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>227700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>553600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1094200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>993800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>547700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>149400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>174500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>328900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>192600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>214200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>192500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>217300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>94200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1497700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1331300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1544000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1417000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1334800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1367900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1596100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1350200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1459300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1650200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1337900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1326600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1443000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1302600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>978700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>915900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>880600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1341300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3841500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3380100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2829000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2368300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2682900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2456500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2723900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2521500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3230100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3337600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2993400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2271500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2448300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2686000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2209400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1630600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1541900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1488800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1438200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2630800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2631400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2929500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3028300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3027500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3531800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3031100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3032400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2145000</v>
       </c>
       <c r="M61" s="3">
         <v>2145000</v>
       </c>
       <c r="N61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="O61" s="3">
         <v>2593300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2892900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2993200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2993000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1492900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1592300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1790400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1798800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1335700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1380500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1443700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1407200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1432400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1498200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1556300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1570600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1655200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1671600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1625500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1463800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1351300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1455200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1296800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>798100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>823400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>865700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>909300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3834,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7831400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7414700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7224600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6827700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7171500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7513800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7340400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7154600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7060900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7185000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6853200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6360500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6722000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7162500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6524500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3936500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3972400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4159000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4181600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4044,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4106,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4168,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4230,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4292,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4767900</v>
+      </c>
+      <c r="E72" s="3">
         <v>4627000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4506400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4519300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4465100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4337900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4188800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4249000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4210500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4088400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4334300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4355100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4304700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4197300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3952400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3444600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3411700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3359100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3505500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4416,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4478,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4540,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3110700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3008600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2961800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2944500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2822200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2675400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2532300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2649200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2763600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2761000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3121100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3046400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2996200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2986600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2681800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2120300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2011900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1877300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1957700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4664,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E81" s="3">
         <v>183400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>49400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>111100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>183900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>206200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>90100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>174000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>215000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>55000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>129300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>265400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>530800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>74500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-124400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4817,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E83" s="3">
         <v>42600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>35600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4941,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5003,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5065,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5127,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5189,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>231200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-303000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>340900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>234600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-328300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>458900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>255100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-277200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-45600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>220600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>271800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>59400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>295000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-34900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>109700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5275,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-110600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-44100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5399,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5461,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-76400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-93400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>45100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>14200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-31100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5547,40 +5780,41 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-57200</v>
       </c>
       <c r="F96" s="3">
         <v>-57200</v>
       </c>
       <c r="G96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-57100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-57000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-52000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-52300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-52800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-22300</v>
       </c>
       <c r="N96" s="3">
         <v>-22300</v>
@@ -5592,25 +5826,28 @@
         <v>-22300</v>
       </c>
       <c r="Q96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="R96" s="3">
         <v>-22200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-22200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5733,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5795,190 +6038,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E100" s="3">
         <v>204700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-63900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-361300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-299900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>474800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-461800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>135700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>250400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>122200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-330300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-269100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>113900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1457400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-94500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-246300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>96500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-136600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>311800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-152200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>271800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-93500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>97100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-80600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>336300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-52200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-149900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>76700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>189200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-66500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,295 +662,308 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1194000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1242000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1195600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1152200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1084600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1155300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1250000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1197300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1014300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1206100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1192100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1099400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>923600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1154400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1107900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>979600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>646200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>656800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>596000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>688400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>681200</v>
+      </c>
+      <c r="E9" s="3">
         <v>710200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>683200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>650800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>618200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>632600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>688500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>641300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>581900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>655600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>647400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>607700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>527100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>625600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>575500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>594800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>380300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>422400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>379800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>423200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>512800</v>
+      </c>
+      <c r="E10" s="3">
         <v>531800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>512400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>501400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>466400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>522700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>561500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>556000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>432400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>550500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>544700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>491700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>396500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>528800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>532400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>384800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>265900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>234400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>216200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>265200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,73 +987,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E12" s="3">
         <v>65900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>74000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>84600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>71700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>64300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>67300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>76400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>77400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>73100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>71200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>76800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>70100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>75900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>64900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>51100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>30200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>32000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>36500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,73 +1121,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>10500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>78500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>72500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>62900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>49800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>148700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-10600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>102800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>53200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>23400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>28700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,8 +1257,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>977000</v>
+      </c>
+      <c r="E17" s="3">
         <v>953400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>934900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1005300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>888600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>887400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>958600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1085200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>854400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>938300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>910300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>921900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>818500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1021100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>782900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>906600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>572100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>590900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>524600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>646000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E18" s="3">
         <v>288600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>260700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>146900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>196000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>267900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>291400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>112100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>159900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>267800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>281800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>177500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>105100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>133300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>325000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>73000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>74100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>71400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>42400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,333 +1444,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-4800</v>
+        <v>-5100</v>
       </c>
       <c r="E20" s="3">
         <v>-4800</v>
       </c>
       <c r="F20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2200</v>
       </c>
       <c r="I20" s="3">
         <v>-2200</v>
       </c>
       <c r="J20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-29200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-13200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>255300</v>
+      </c>
+      <c r="E21" s="3">
         <v>326300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>298500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>183800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>225900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>305800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>328300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>150400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>197700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>301700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>315700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>235700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>171900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>359400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>102800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>91700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>54600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E22" s="3">
         <v>32600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>41600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>28700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E23" s="3">
         <v>251200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>223500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>107500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>148900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>225000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>248400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>66600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>119500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>225000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>243900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>146100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>72900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>290700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>52000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>54400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E24" s="3">
         <v>33400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>68600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>60500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-52900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E26" s="3">
         <v>217800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>191300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>130500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>195800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>213700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>194400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>207600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>156700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>50900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>99800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>230200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>70900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>45000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>217600</v>
+        <v>167200</v>
       </c>
       <c r="E27" s="3">
-        <v>191500</v>
+        <v>217000</v>
       </c>
       <c r="F27" s="3">
+        <v>190300</v>
+      </c>
+      <c r="G27" s="3">
         <v>41000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>129500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>194700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>213700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>192100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>205400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>153800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>96600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>226800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>67700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>70000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>44400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,73 +2054,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E29" s="3">
         <v>-14600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-8100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>8400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-18400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-10800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-7500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-33500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-21300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-18100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>9600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-112300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>6400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>32700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>38600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>463100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-15100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>26600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-168800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>7000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="E32" s="3">
         <v>4800</v>
       </c>
       <c r="F32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G32" s="3">
         <v>5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2200</v>
       </c>
       <c r="I32" s="3">
         <v>2200</v>
       </c>
       <c r="J32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>29200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>13200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>203000</v>
+        <v>157500</v>
       </c>
       <c r="E33" s="3">
-        <v>183400</v>
+        <v>202400</v>
       </c>
       <c r="F33" s="3">
+        <v>182200</v>
+      </c>
+      <c r="G33" s="3">
         <v>49400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>111100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>183900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>206200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>90100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>174000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>215000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>55000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>129300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>265400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>530800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>74500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-124400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2386,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>203000</v>
+        <v>157500</v>
       </c>
       <c r="E35" s="3">
-        <v>183400</v>
+        <v>202400</v>
       </c>
       <c r="F35" s="3">
+        <v>182200</v>
+      </c>
+      <c r="G35" s="3">
         <v>49400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>111100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>183900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>206200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>90100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>174000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>215000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>55000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>129300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>265400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>530800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>74500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-124400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2546,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2571,73 +2657,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E41" s="3">
         <v>728500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>416700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>568900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>297100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>342700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>436200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>339100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>419700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>109500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>176500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>326400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>359700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>283000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>93800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>113200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>96100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>64200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2701,288 +2791,303 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2503500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2627300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2532800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2330300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2137900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2342400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2460100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2231200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2001100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2384000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2530200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2143800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1901900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2194100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2399700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2043500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1457600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1442300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1630600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1692500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1450500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1398100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1254700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1095600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1155500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1138500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1062700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1017000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1167400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1153400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1137100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1025500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>995400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>958700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1035200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>992500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>614800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>546300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>526400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>478900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>433200</v>
+      </c>
+      <c r="E45" s="3">
         <v>443400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>462900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>380800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>424700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>464600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>513000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>487500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>489400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>476200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>427300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>726500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>417400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>513800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>541000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>333700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1408000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1384000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1301100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>613600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4728200</v>
+      </c>
+      <c r="E46" s="3">
         <v>5197300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4667100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4375600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4015200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4288200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4472000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4074800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4077600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4097000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4204100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4030200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3491200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3993000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4335600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3652700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3574200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3485800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3554200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2849200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E47" s="3">
         <v>82200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1700</v>
       </c>
       <c r="H47" s="3">
         <v>1700</v>
       </c>
       <c r="I47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="J47" s="3">
         <v>700</v>
@@ -3000,164 +3105,173 @@
         <v>700</v>
       </c>
       <c r="O47" s="3">
+        <v>700</v>
+      </c>
+      <c r="P47" s="3">
         <v>81900</v>
-      </c>
-      <c r="P47" s="3">
-        <v>1500</v>
       </c>
       <c r="Q47" s="3">
         <v>1500</v>
       </c>
       <c r="R47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="S47" s="3">
         <v>1400</v>
       </c>
       <c r="T47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U47" s="3">
         <v>1300</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1000</v>
       </c>
       <c r="V47" s="3">
         <v>1000</v>
       </c>
       <c r="W47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>922500</v>
+      </c>
+      <c r="E48" s="3">
         <v>925100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>905700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>919000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>889600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>884300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>891500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>922700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>895300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>896100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>909300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2270700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1002700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1014300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1030400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1025200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>547000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>538300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>535100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2315600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4010500</v>
+      </c>
+      <c r="E49" s="3">
         <v>4040400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4049900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4094100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4074800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4064600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4071300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4096500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4098700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4142800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4150600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4171500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4206300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3974000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4048000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3830700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1276900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1264600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1235400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1218600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3221,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3286,73 +3403,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>670800</v>
+      </c>
+      <c r="E52" s="3">
         <v>697100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>698400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>794600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>790900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>754900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>753700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>778000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>731500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>687900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>681300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1015000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>624800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>735400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>733600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>696300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>657300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>694300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>710600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1532400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3416,73 +3539,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10410200</v>
+      </c>
+      <c r="E54" s="3">
         <v>10942100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10423300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10186400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9772200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9993700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10189200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9872700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9803800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9824500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9946000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9974300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9406900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9718200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10149100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9206300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6056800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5984300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6036300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6139300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3506,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3531,398 +3661,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1101400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1158000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1074400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>946700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>757200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>842200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>838400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>667000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>785700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>884500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>795500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>784200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>947200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>914100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>714200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>437700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>433500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>390900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>317400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1185800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>974400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>338300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>194100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>505900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>250200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>227700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>553600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1094200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>993800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>547700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>149400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>174500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>328900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>192600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>214200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>192500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>217300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>94200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1564200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1497700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1331300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1544000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1417000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1334800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1367900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1596100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1350200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1459300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1650200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1337900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1326600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1443000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1302600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>978700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>915900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>880600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1341300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3427600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3841500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3380100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2829000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2368300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2682900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2456500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2723900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2521500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3230100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3337600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2993400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2271500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2448300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2686000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2209400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1630600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1541900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1488800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1438200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2631700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2630800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2631400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2929500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3028300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3027500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3531800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3031100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3032400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>2145000</v>
       </c>
       <c r="N61" s="3">
         <v>2145000</v>
       </c>
       <c r="O61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="P61" s="3">
         <v>2593300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2892900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2993200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2993000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1492900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1592300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1790400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1798800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1293900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1335700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1380500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1443700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1407200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1432400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1498200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1556300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1570600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1655200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1671600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1625500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1463800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1351300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1455200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1296800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>798100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>823400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>865700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>909300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3986,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4116,73 +4271,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7378800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7831400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7414700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7224600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6827700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7171500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7513800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7340400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7154600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7060900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7185000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6853200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6360500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6722000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7162500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6524500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3936500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3972400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4159000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4181600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4206,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4271,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4336,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4401,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4466,73 +4637,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4864900</v>
+      </c>
+      <c r="E72" s="3">
         <v>4767900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4627000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4506400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4519300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4465100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4337900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4188800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4249000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4210500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4088400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4334300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4355100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4304700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4197300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3952400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3444600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3411700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3359100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3505500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4596,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4661,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4726,73 +4909,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3031400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3110700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3008600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2961800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2944500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2822200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2675400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2532300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2649200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2763600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2761000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3121100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3046400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2996200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2986600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2681800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2120300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2011900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1877300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1957700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4856,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>203000</v>
+        <v>157500</v>
       </c>
       <c r="E81" s="3">
-        <v>183400</v>
+        <v>202400</v>
       </c>
       <c r="F81" s="3">
+        <v>182200</v>
+      </c>
+      <c r="G81" s="3">
         <v>49400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>111100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>183900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>206200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>90100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>174000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>215000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>55000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>129300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>265400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>530800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>74500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-124400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5016,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E83" s="3">
         <v>42500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>37300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>35600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5146,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5211,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5276,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5341,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5406,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>316100</v>
+      </c>
+      <c r="E89" s="3">
         <v>231200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-303000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>340900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>234600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-328300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>458900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>255100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-277200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-45600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>220600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>271800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-78400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>59400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>295000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-34900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>109700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5496,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-110600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-48400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-44100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5626,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5691,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-76400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-93400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>45100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>14200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-31100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-38000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5781,43 +6014,44 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-62000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-57200</v>
       </c>
       <c r="G96" s="3">
         <v>-57200</v>
       </c>
       <c r="H96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-57100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-57000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-52000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-52300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-52800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-22300</v>
       </c>
       <c r="O96" s="3">
         <v>-22300</v>
@@ -5829,25 +6063,28 @@
         <v>-22300</v>
       </c>
       <c r="R96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="S96" s="3">
         <v>-22200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-22100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-22200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5911,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5976,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6041,199 +6284,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-682900</v>
+      </c>
+      <c r="E100" s="3">
         <v>111200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>204700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-63900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-361300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-299900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>474800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-461800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>135700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>250400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>122200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-330300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-269100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>113900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1457400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-94500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-246300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>96500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-136600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-387500</v>
+      </c>
+      <c r="E102" s="3">
         <v>311800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-152200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>271800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-93500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>97100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-80600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>336300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-52200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-149900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>76700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>189200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>31900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-66500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,308 +662,320 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1413600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1194000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1242000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1195600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1152200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1084600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1155300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1250000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1197300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1014300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1206100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1192100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1099400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>923600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1154400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1107900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>979600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>646200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>656800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>596000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>688400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>798900</v>
+      </c>
+      <c r="E9" s="3">
         <v>681200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>710200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>683200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>650800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>618200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>632600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>688500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>641300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>581900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>655600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>647400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>607700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>527100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>625600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>575500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>594800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>380300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>422400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>379800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>423200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>614700</v>
+      </c>
+      <c r="E10" s="3">
         <v>512800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>531800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>512400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>501400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>466400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>522700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>561500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>556000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>432400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>550500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>544700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>491700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>396500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>528800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>532400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>384800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>265900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>234400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>216200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>265200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,76 +1000,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E12" s="3">
         <v>79500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>65900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>74000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>84600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>71700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>64300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>67300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>76400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>77400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>73100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>71200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>76800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>70100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>75900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>64900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>51100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>30200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>32000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>28200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>36500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,76 +1140,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>78500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>72500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>62900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>49800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>148700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-10600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>102800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>53200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>23400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>28700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1260,8 +1282,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="E17" s="3">
         <v>977000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>953400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>934900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1005300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>888600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>887400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>958600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1085200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>854400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>938300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>910300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>921900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>818500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1021100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>782900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>906600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>572100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>590900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>524600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>646000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>278600</v>
+      </c>
+      <c r="E18" s="3">
         <v>217000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>288600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>260700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>146900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>196000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>267900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>291400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>159900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>267800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>281800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>177500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>105100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>133300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>325000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>73000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>65900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>71400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>42400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1445,348 +1477,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-4800</v>
       </c>
       <c r="F20" s="3">
         <v>-4800</v>
       </c>
       <c r="G20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2200</v>
       </c>
       <c r="J20" s="3">
         <v>-2200</v>
       </c>
       <c r="K20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-29200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-13200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>315700</v>
+      </c>
+      <c r="E21" s="3">
         <v>255300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>326300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>298500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>183800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>225900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>305800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>328300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>150400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>197700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>301700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>315700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>235700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>144100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>171900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>359400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>85600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>102800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>91700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>93700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>54600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E22" s="3">
         <v>33100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>33900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>28700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E23" s="3">
         <v>178800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>251200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>223500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>107500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>148900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>225000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>248400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>119500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>225000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>243900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>146100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>72900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>290700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>59300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>52000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>54400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>68600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-10600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>60500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-52900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-11600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1853,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E26" s="3">
         <v>170100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>217800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>191300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>38900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>130500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>195800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>213700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>110800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>194400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>207600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>156700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>99800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>230200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>70900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>45000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>9400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>228400</v>
+      </c>
+      <c r="E27" s="3">
         <v>167200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>217000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>190300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>129500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>194700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>213700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>192100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>205400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>153800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>96600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>226800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>67700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>70000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>44400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2057,76 +2114,82 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E29" s="3">
         <v>-9700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-14600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-8100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>8400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-18400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-10800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-7500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-33500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-21300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-18100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>9600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-112300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>6400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>32700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>38600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>463100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-15100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>26600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-168800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>7000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>5100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4800</v>
       </c>
       <c r="F32" s="3">
         <v>4800</v>
       </c>
       <c r="G32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H32" s="3">
         <v>5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2200</v>
       </c>
       <c r="J32" s="3">
         <v>2200</v>
       </c>
       <c r="K32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>29200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>13200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E33" s="3">
         <v>157500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>202400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>182200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>49400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>111100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>183900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>206200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>90100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>174000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>215000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>55000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>129300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>265400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>530800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>54900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>74500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-124400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2465,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E35" s="3">
         <v>157500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>202400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>182200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>49400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>111100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>183900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>206200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>90100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>174000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>215000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>55000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>129300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>265400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>530800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>54900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>74500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-124400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2632,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2658,76 +2743,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>516800</v>
+      </c>
+      <c r="E41" s="3">
         <v>341000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>728500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>416700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>568900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>297100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>342700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>436200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>339100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>419700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>109500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>134400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>176500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>326400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>359700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>283000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>93800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>113200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>96100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>64200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2794,303 +2883,318 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2583700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2503500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2627300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2532800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2330300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2137900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2342400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2460100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2231200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2001100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2384000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2530200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2143800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1901900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2194100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2399700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2043500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1457600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1442300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1630600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1692500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1405700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1450500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1398100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1254700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1095600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1155500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1138500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1062700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1017000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1167400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1153400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1137100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1025500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>995400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>958700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1035200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>992500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>614800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>546300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>526400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>478900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>431400</v>
+      </c>
+      <c r="E45" s="3">
         <v>433200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>443400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>462900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>380800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>424700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>464600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>513000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>487500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>489400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>476200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>427300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>726500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>417400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>513800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>541000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>333700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1408000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1384000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1301100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>613600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4937600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4728200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5197300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4667100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4375600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4015200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4288200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4472000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4074800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4077600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4097000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4204100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4030200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3491200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3993000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4335600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3652700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3574200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3485800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3554200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2849200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E47" s="3">
         <v>78200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>82200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>102200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1700</v>
       </c>
       <c r="I47" s="3">
         <v>1700</v>
       </c>
       <c r="J47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="K47" s="3">
         <v>700</v>
@@ -3108,170 +3212,179 @@
         <v>700</v>
       </c>
       <c r="P47" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q47" s="3">
         <v>81900</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1500</v>
       </c>
       <c r="R47" s="3">
         <v>1500</v>
       </c>
       <c r="S47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T47" s="3">
         <v>1400</v>
       </c>
       <c r="U47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V47" s="3">
         <v>1300</v>
-      </c>
-      <c r="V47" s="3">
-        <v>1000</v>
       </c>
       <c r="W47" s="3">
         <v>1000</v>
       </c>
       <c r="X47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>952200</v>
+      </c>
+      <c r="E48" s="3">
         <v>922500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>925100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>905700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>919000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>889600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>884300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>891500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>922700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>895300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>896100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>909300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2270700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1002700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1014300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1030400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1025200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>547000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>538300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>535100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2315600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>3985200</v>
+      </c>
+      <c r="E49" s="3">
         <v>4010500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4040400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4049900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4094100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4074800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4064600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4071300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4096500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4098700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4142800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4150600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4171500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4206300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3974000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4048000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3830700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1276900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1264600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1235400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1218600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3338,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3406,76 +3522,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>639700</v>
+      </c>
+      <c r="E52" s="3">
         <v>670800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>697100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>698400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>794600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>790900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>754900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>753700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>778000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>731500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>687900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>681300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1015000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>624800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>735400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>733600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>696300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>657300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>694300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>710600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1532400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3542,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10581300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10410200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10942100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10423300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10186400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9772200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9993700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10189200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9872700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9803800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9824500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9946000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9974300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9406900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9718200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10149100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9206300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6056800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5984300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6036300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6139300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3636,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3662,416 +3791,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1101400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1158000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1074400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>946700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>757200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>842200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>838400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>667000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>785700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>884500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>795500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>784200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>947200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>914100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>714200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>437700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>433500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>390900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>317400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>440800</v>
+      </c>
+      <c r="E58" s="3">
         <v>762000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1185800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>974400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>338300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>194100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>505900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>250200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>227700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>553600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1094200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>993800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>547700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>149400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>174500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>328900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>192600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>214200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>192500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>217300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>94200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1944500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1564200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1497700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1331300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1544000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1417000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1334800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1367900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1596100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1350200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1459300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1650200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1337900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1326600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1443000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1302600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>978700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>915900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>880600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1341300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3520300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3427600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3841500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3380100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2829000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2368300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2682900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2456500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2723900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2521500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3230100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3337600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2993400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2271500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2448300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2686000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2209400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1630600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1541900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1488800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1438200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2731700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2631700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2630800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2631400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2929500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3028300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3027500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3531800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3031100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3032400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>2145000</v>
       </c>
       <c r="O61" s="3">
         <v>2145000</v>
       </c>
       <c r="P61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2593300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2892900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2993200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2993000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1492900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1592300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1790400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1798800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1277400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1293900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1335700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1380500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1443700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1407200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1432400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1498200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1556300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1570600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1655200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1671600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1625500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1463800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1351300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1455200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1296800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>798100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>823400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>865700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>909300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4138,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4206,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4274,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7548800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7378800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7831400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7414700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7224600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6827700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7171500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7513800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7340400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7154600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7060900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7185000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6853200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6360500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6722000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7162500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6524500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3936500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3972400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4159000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4181600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4368,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4436,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4504,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4572,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4640,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>4991300</v>
+      </c>
+      <c r="E72" s="3">
         <v>4864900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4767900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4627000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4506400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4519300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4465100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4337900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4188800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4249000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4210500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4088400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4334300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4355100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4304700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4197300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3952400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3444600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3411700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3359100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3505500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4776,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4844,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4912,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3032500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3031400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3110700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3008600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2961800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2944500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2822200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2675400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2532300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2649200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2763600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2761000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3121100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3046400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2996200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2986600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2681800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2120300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2011900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1877300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1957700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5048,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E81" s="3">
         <v>157500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>202400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>182200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>49400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>111100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>183900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>206200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>90100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>174000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>215000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>55000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>129300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>265400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>530800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>54900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>74500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-124400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5215,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E83" s="3">
         <v>43400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>37200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>41800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>35600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5351,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5419,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5487,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5555,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5623,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>575800</v>
+      </c>
+      <c r="E89" s="3">
         <v>316100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>231200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-303000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>340900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>234600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-328300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>458900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>255100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>51700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-277200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-45600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>220600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>271800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-78400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>59400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>295000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-34900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>109700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5717,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-110600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-44100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5853,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5921,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-93400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>45100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>14200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-31100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-38000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6015,46 +6247,47 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-61900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-62000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-57200</v>
       </c>
       <c r="H96" s="3">
         <v>-57200</v>
       </c>
       <c r="I96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-57100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-57000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-52000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-52300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-52800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-22300</v>
       </c>
       <c r="P96" s="3">
         <v>-22300</v>
@@ -6066,25 +6299,28 @@
         <v>-22300</v>
       </c>
       <c r="S96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="T96" s="3">
         <v>-22200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-22200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-22100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-22200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6151,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6219,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6287,208 +6529,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-380900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-682900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>111200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>204700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-63900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-361300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-299900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>474800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-461800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>135700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-48500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>250400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>122200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-330300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-269100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>113900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1457400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-94500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-246300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>96500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-136600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-387500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>311800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-152200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>271800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-93500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>97100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-80600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>336300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-52200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-149900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>76700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>189200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>31900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-66500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,320 +662,333 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1350800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1413600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1194000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1242000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1195600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1152200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1084600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1155300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1250000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1197300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1014300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1206100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1192100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1099400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>923600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1154400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1107900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>979600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>646200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>656800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>596000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>688400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>778100</v>
+      </c>
+      <c r="E9" s="3">
         <v>798900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>681200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>710200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>683200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>650800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>618200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>632600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>688500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>641300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>581900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>655600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>647400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>607700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>527100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>625600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>575500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>594800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>380300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>422400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>379800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>423200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>572700</v>
+      </c>
+      <c r="E10" s="3">
         <v>614700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>512800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>531800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>512400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>501400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>466400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>522700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>561500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>556000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>432400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>550500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>544700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>491700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>396500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>528800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>532400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>384800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>265900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>234400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>216200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>265200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,79 +1014,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E12" s="3">
         <v>85300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>79500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>65900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>74000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>84600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>71700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>64300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>67300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>76400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>77400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>73100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>71200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>76800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>70100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>75900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>64900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>51100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>30200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>32000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>28200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>36500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,79 +1160,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E14" s="3">
         <v>22200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>78500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>72500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>62900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>49800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>148700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-10600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>102800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>53200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>23400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>28700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,8 +1308,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1047500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1135000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>977000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>953400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>934900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1005300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>888600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>887400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>958600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1085200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>854400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>938300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>910300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>921900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>818500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1021100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>782900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>906600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>572100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>590900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>524600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>646000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E18" s="3">
         <v>278600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>217000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>288600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>260700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>146900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>196000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>267900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>291400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>112100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>159900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>267800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>281800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>177500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>105100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>133300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>325000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>73000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>65900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>71400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>42400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1478,363 +1511,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4800</v>
       </c>
       <c r="G20" s="3">
         <v>-4800</v>
       </c>
       <c r="H20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2200</v>
       </c>
       <c r="K20" s="3">
         <v>-2200</v>
       </c>
       <c r="L20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-29200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E21" s="3">
         <v>315700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>255300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>326300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>298500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>183800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>225900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>305800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>328300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>150400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>197700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>301700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>315700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>235700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>144100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>171900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>359400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>102800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>91700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>93700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>54600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E22" s="3">
         <v>33000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>35500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>41600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>34400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>33900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>28700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>18400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>269100</v>
+      </c>
+      <c r="E23" s="3">
         <v>240300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>178800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>251200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>223500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>107500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>148900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>225000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>248400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>119500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>225000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>243900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>146100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>290700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>59300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>52000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>54400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>12100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E24" s="3">
         <v>17300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>33400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>68600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>60500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-52900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-11600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>226800</v>
+      </c>
+      <c r="E26" s="3">
         <v>223000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>170100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>217800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>191300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>38900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>130500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>195800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>213700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>110800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>194400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>207600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>156700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>99800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>230200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>68000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>70900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>45000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>9400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E27" s="3">
         <v>228400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>167200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>217000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>190300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>129500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>194700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>213700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>192100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>205400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>153800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>96600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>226800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>67700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>70000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>47900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>44400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2117,79 +2175,85 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-35800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-9700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-14600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-8100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>8400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-18400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-10800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-7500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-33500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-21300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-18100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>9600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-112300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>6400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>32700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>38600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>463100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-15100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>26600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-168800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>7000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2259,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,150 +2397,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4800</v>
       </c>
       <c r="G32" s="3">
         <v>4800</v>
       </c>
       <c r="H32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I32" s="3">
         <v>5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2200</v>
       </c>
       <c r="K32" s="3">
         <v>2200</v>
       </c>
       <c r="L32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>29200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>13200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E33" s="3">
         <v>192600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>157500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>202400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>182200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>49400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>111100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>183900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>206200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>90100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>174000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>215000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>55000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>129300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>265400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>530800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>54900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>74500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-124400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>15800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2543,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E35" s="3">
         <v>192600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>157500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>202400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>182200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>49400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>111100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>183900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>206200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>90100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>174000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>215000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>55000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>129300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>265400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>530800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>54900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>74500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-124400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>15800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2717,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2744,79 +2830,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>365100</v>
+      </c>
+      <c r="E41" s="3">
         <v>516800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>341000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>728500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>416700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>568900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>297100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>342700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>436200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>339100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>419700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>83400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>109500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>134400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>176500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>326400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>359700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>283000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>93800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>113200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>96100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>64200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2886,318 +2976,333 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2868600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2583700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2503500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2627300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2532800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2330300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2137900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2342400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2460100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2231200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2001100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2384000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2530200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2143800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1901900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2194100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2399700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2043500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1457600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1442300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1630600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1692500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1590700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1405700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1450500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1398100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1254700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1095600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1155500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1138500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1062700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1017000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1167400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1153400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1137100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1025500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>995400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>958700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1035200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>992500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>614800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>546300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>526400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>478900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E45" s="3">
         <v>431400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>433200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>443400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>462900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>380800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>424700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>464600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>513000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>487500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>489400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>476200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>427300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>726500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>417400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>513800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>541000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>333700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1408000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1384000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1301100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>613600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5298400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4937600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4728200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5197300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4667100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4375600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4015200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4288200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4472000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4074800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4077600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4097000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4204100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4030200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3491200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3993000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4335600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3652700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3574200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3485800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3554200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2849200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E47" s="3">
         <v>66600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>78200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>82200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1700</v>
       </c>
       <c r="J47" s="3">
         <v>1700</v>
       </c>
       <c r="K47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="L47" s="3">
         <v>700</v>
@@ -3215,176 +3320,185 @@
         <v>700</v>
       </c>
       <c r="Q47" s="3">
+        <v>700</v>
+      </c>
+      <c r="R47" s="3">
         <v>81900</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1500</v>
       </c>
       <c r="S47" s="3">
         <v>1500</v>
       </c>
       <c r="T47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="U47" s="3">
         <v>1400</v>
       </c>
       <c r="V47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W47" s="3">
         <v>1300</v>
-      </c>
-      <c r="W47" s="3">
-        <v>1000</v>
       </c>
       <c r="X47" s="3">
         <v>1000</v>
       </c>
       <c r="Y47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>938800</v>
+      </c>
+      <c r="E48" s="3">
         <v>952200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>922500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>925100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>905700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>919000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>889600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>884300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>891500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>922700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>895300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>896100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>909300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2270700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1002700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1014300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1030400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1025200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>547000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>538300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>535100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2315600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>3954600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3985200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4010500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4040400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4049900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4094100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4074800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4064600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4071300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4096500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4098700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4142800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4150600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4171500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4206300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3974000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4048000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3830700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1276900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1264600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1235400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1218600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3454,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3525,79 +3642,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>702800</v>
+      </c>
+      <c r="E52" s="3">
         <v>639700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>670800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>697100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>698400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>794600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>790900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>754900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>753700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>778000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>731500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>687900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>681300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1015000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>624800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>735400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>733600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>696300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>657300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>694300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>710600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1532400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3667,79 +3790,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10904800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10581300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10410200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10942100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10423300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10186400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9772200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9993700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10189200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9872700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9803800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9824500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9946000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9974300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9406900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9718200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10149100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9206300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6056800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5984300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6036300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6139300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3765,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3792,434 +3922,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1057400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1135000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1101400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1158000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1074400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>946700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>757200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>842200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>838400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>667000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>785700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>884500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>795500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>784200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>947200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>914100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>714200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>437700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>433500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>390900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>317400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1040400</v>
+      </c>
+      <c r="E58" s="3">
         <v>440800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>762000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1185800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>974400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>338300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>194100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>505900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>250200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>227700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>553600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1094200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>993800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>547700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>149400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>174500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>328900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>192600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>214200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>192500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>217300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>94200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1731500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1944500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1564200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1497700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1331300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1544000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1417000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1334800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1367900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1596100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1350200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1459300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1650200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1337900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1326600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1443000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1302600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>978700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>915900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>880600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1341300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3829300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3520300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3427600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3841500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3380100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2829000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2368300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2682900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2456500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2723900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2521500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3230100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3337600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2993400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2271500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2448300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2686000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2209400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1630600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1541900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1488800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1438200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2732400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2731700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2631700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2630800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2631400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2929500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3028300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3027500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3531800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3031100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3032400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>2145000</v>
       </c>
       <c r="P61" s="3">
         <v>2145000</v>
       </c>
       <c r="Q61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="R61" s="3">
         <v>2593300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2892900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2993200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2993000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1492900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1592300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1790400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1798800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1260900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1277400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1293900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1335700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1380500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1443700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1407200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1432400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1498200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1556300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1570600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1655200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1671600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1625500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1463800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1351300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1455200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1296800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>798100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>823400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>865700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>909300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4289,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4360,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4431,79 +4586,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7845700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7548800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7378800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7831400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7414700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7224600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6827700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7171500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7513800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7340400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7154600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7060900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7185000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6853200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6360500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6722000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7162500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6524500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3936500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3972400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4159000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4181600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4529,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4600,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4671,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4742,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4813,79 +4984,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>5131800</v>
+      </c>
+      <c r="E72" s="3">
         <v>4991300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4864900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4767900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4627000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4506400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4519300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4465100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4337900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4188800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4249000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4210500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4088400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4334300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4355100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4304700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4197300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3952400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3444600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3411700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3359100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3505500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4955,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5026,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5097,79 +5280,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3059100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3032500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3031400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3110700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3008600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2961800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2944500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2822200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2675400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2532300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2649200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2763600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2761000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3121100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3046400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2996200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2986600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2681800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2120300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2011900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1877300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1957700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5239,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E81" s="3">
         <v>192600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>157500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>202400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>182200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>49400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>111100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>183900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>206200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>90100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>174000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>215000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>55000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>129300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>265400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>530800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>54900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>74500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-124400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>15800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5413,8 +5611,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5422,70 +5621,73 @@
         <v>42400</v>
       </c>
       <c r="E83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F83" s="3">
         <v>43400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>35600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5555,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5626,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5697,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5768,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5839,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-608800</v>
+      </c>
+      <c r="E89" s="3">
         <v>575800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>316100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>231200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-303000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>340900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>234600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-328300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>458900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>255100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>51700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-277200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-45600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>220600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>271800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-78400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>59400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>295000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-34900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>109700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5937,79 +6157,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-110600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-44100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6079,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6150,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-76400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-93400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>45100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>14200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-31100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6248,49 +6481,50 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-61000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-61900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-62000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-57200</v>
       </c>
       <c r="I96" s="3">
         <v>-57200</v>
       </c>
       <c r="J96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-57100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-57000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-52000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-52300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-52800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-22300</v>
       </c>
       <c r="Q96" s="3">
         <v>-22300</v>
@@ -6302,25 +6536,28 @@
         <v>-22300</v>
       </c>
       <c r="T96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="U96" s="3">
         <v>-22200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-22300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-22200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-22100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-22200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6390,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6461,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6532,217 +6775,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>515500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-380900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-682900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>111200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>204700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-63900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-361300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-299900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>474800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-461800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>135700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-48500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>250400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>122200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-330300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-269100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>113900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1457400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-94500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-246300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>96500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-136600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-151700</v>
+      </c>
+      <c r="E102" s="3">
         <v>175800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-387500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>311800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-152200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>271800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-45600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-93500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>97100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-80600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>336300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-52200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-149900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-33300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>76700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>189200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>17100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>31900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-66500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,333 +662,346 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1452300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1350800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1413600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1194000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1242000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1195600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1152200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1084600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1155300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1250000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1197300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1014300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1206100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1192100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1099400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>923600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1154400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1107900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>979600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>646200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>656800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>596000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>688400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>861300</v>
+      </c>
+      <c r="E9" s="3">
         <v>778100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>798900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>681200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>710200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>683200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>650800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>618200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>632600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>688500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>641300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>581900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>655600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>647400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>607700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>527100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>625600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>575500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>594800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>380300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>422400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>379800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>423200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>591000</v>
+      </c>
+      <c r="E10" s="3">
         <v>572700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>614700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>512800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>531800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>512400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>501400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>466400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>522700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>561500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>556000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>432400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>550500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>544700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>491700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>396500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>528800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>532400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>384800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>265900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>234400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>216200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>265200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,82 +1028,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E12" s="3">
         <v>71800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>85300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>79500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>74000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>84600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>71700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>64300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>67300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>76400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>77400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>73100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>71200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>76800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>70100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>75900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>64900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>51100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>30200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>32000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>28200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>36500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,82 +1180,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E14" s="3">
         <v>11200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>78500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>72500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>21700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>62900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>49800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>148700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-10600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>102800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>53200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>23400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>28700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1311,8 +1334,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1047500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1135000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>977000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>953400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>934900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1005300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>888600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>887400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>958600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1085200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>854400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>938300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>910300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>921900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>818500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1021100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>782900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>906600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>572100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>590900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>524600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>646000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E18" s="3">
         <v>303300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>278600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>217000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>288600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>260700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>146900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>196000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>267900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>291400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>159900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>267800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>281800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>177500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>105100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>133300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>325000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>73000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>74100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>65900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>71400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>42400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,378 +1545,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4800</v>
       </c>
       <c r="H20" s="3">
         <v>-4800</v>
       </c>
       <c r="I20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2200</v>
       </c>
       <c r="L20" s="3">
         <v>-2200</v>
       </c>
       <c r="M20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-29200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E21" s="3">
         <v>341400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>315700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>255300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>326300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>298500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>183800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>225900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>305800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>328300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>150400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>197700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>301700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>315700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>235700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>144100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>171900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>359400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>85600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>102800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>91700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>93700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>54600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E22" s="3">
         <v>29900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>41600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>32800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>33400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>34400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>33900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>28700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>18400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>15700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>17100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E23" s="3">
         <v>269100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>240300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>178800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>251200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>223500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>107500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>148900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>225000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>248400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>119500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>225000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>243900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>146100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>72900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>290700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>59300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>52000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>54400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>12100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E24" s="3">
         <v>42300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>68600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>60500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-52900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-11600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1956,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E26" s="3">
         <v>226800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>223000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>170100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>217800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>191300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>130500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>195800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>213700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>110800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>194400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>207600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>156700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>50900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>99800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>230200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>68000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>70900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>48700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>45000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>9400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E27" s="3">
         <v>222200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>228400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>167200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>217000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>190300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>129500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>194700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>213700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>111400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>192100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>205400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>153800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>96600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>226800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>67700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>70000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>47900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>44400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>8800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2178,82 +2236,88 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E29" s="3">
         <v>-15200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-35800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-9700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-14600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-8100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>8400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-18400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-10800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-7500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-33500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-21300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-18100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>9600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-112300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>6400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>32700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>38600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>463100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-15100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>26600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-168800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>7000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2326,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2400,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4800</v>
       </c>
       <c r="H32" s="3">
         <v>4800</v>
       </c>
       <c r="I32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2200</v>
       </c>
       <c r="L32" s="3">
         <v>2200</v>
       </c>
       <c r="M32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>29200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>13200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E33" s="3">
         <v>207000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>192600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>157500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>202400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>182200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>111100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>183900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>206200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>90100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>174000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>215000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>55000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>129300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>265400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>530800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>54900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>74500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-124400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>15800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2622,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E35" s="3">
         <v>207000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>192600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>157500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>202400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>182200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>49400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>111100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>183900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>206200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>90100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>174000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>215000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>55000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>129300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>265400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>530800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>54900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>74500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-124400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>15800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2803,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2831,82 +2917,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>591500</v>
+      </c>
+      <c r="E41" s="3">
         <v>365100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>516800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>341000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>728500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>416700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>568900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>297100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>342700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>436200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>339100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>419700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>83400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>109500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>134400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>176500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>326400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>359700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>283000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>93800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>113200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>96100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>64200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2979,333 +3069,348 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2885100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2868600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2583700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2503500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2627300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2532800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2330300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2137900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2342400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2460100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2231200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2001100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2384000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2530200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2143800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1901900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2194100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2399700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2043500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1457600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1442300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1630600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1692500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1590400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1590700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1405700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1450500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1398100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1254700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1095600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1155500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1138500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1062700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1017000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1167400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1153400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1137100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1025500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>995400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>958700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1035200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>992500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>614800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>546300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>526400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>478900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>450400</v>
+      </c>
+      <c r="E45" s="3">
         <v>474000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>431400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>433200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>443400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>462900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>380800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>424700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>464600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>513000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>487500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>489400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>476200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>427300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>726500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>417400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>513800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>541000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>333700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1408000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1384000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1301100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>613600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5517400</v>
+      </c>
+      <c r="E46" s="3">
         <v>5298400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4937600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4728200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5197300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4667100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4375600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4015200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4288200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4472000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4074800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4077600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4097000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4204100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4030200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3491200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3993000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4335600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3652700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3574200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3485800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3554200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2849200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E47" s="3">
         <v>10200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>66600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>78200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>82200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1700</v>
       </c>
       <c r="K47" s="3">
         <v>1700</v>
       </c>
       <c r="L47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="M47" s="3">
         <v>700</v>
@@ -3323,182 +3428,191 @@
         <v>700</v>
       </c>
       <c r="R47" s="3">
+        <v>700</v>
+      </c>
+      <c r="S47" s="3">
         <v>81900</v>
-      </c>
-      <c r="S47" s="3">
-        <v>1500</v>
       </c>
       <c r="T47" s="3">
         <v>1500</v>
       </c>
       <c r="U47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="V47" s="3">
         <v>1400</v>
       </c>
       <c r="W47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X47" s="3">
         <v>1300</v>
-      </c>
-      <c r="X47" s="3">
-        <v>1000</v>
       </c>
       <c r="Y47" s="3">
         <v>1000</v>
       </c>
       <c r="Z47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>925600</v>
+      </c>
+      <c r="E48" s="3">
         <v>938800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>952200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>922500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>925100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>905700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>919000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>889600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>884300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>891500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>922700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>895300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>896100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>909300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2270700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1002700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1014300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1030400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1025200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>547000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>538300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>535100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2315600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>3902200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3954600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3985200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4010500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4040400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4049900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4094100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4074800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4064600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4071300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4096500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4098700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4142800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4150600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4171500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4206300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3974000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4048000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3830700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1276900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1264600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1235400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1218600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3571,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3645,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>620500</v>
+      </c>
+      <c r="E52" s="3">
         <v>702800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>639700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>670800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>697100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>698400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>794600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>790900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>754900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>753700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>778000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>731500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>687900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>681300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1015000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>624800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>735400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>733600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>696300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>657300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>694300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>710600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1532400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3793,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>11044200</v>
+      </c>
+      <c r="E54" s="3">
         <v>10904800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10581300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10410200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10942100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10423300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10186400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9772200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9993700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10189200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9872700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9803800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9824500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9946000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9974300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9406900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9718200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10149100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9206300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6056800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5984300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6036300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6139300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3895,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3923,452 +4053,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1057400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1135000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1101400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1158000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1074400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>946700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>757200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>842200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>838400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>667000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>785700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>884500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>795500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>784200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>947200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>914100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>714200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>437700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>433500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>390900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>317400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1155100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1040400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>440800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>762000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1185800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>974400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>338300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>194100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>505900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>250200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>227700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>553600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1094200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>993800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>547700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>149400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>174500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>328900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>192600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>214200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>192500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>217300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>94200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1708400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1731500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1944500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1564200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1497700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1331300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1544000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1417000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1334800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1367900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1596100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1350200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1459300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1650200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1337900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1326600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1443000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1302600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>978700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>915900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>880600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1341300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3985700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3829300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3520300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3427600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3841500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3380100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2829000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2368300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2682900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2456500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2723900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2521500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3230100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3337600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2993400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2271500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2448300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2686000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2209400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1630600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1541900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1488800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1438200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2731700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2732400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2731700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2631700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2630800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2631400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2929500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3028300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3027500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3531800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3031100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3032400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>2145000</v>
       </c>
       <c r="Q61" s="3">
         <v>2145000</v>
       </c>
       <c r="R61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="S61" s="3">
         <v>2593300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2892900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2993200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2993000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1492900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1592300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1790400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1798800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1199500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1260900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1277400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1293900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1335700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1380500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1443700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1407200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1432400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1498200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1556300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1570600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1655200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1671600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1625500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1463800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1351300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1455200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1296800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>798100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>823400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>865700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>909300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4441,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4515,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4589,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7935700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7845700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7548800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7378800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7831400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7414700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7224600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6827700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7171500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7513800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7340400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7154600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7060900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7185000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6853200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6360500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6722000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7162500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6524500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3936500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3972400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4159000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4181600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4691,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4765,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4839,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4913,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4987,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>5199100</v>
+      </c>
+      <c r="E72" s="3">
         <v>5131800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4991300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4864900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4767900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4627000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4506400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4519300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4465100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4337900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4188800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4249000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4210500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4088400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4334300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4355100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4304700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4197300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3952400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3444600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3411700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3359100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3505500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5135,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5209,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5283,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3108500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3059100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3032500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3031400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3110700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3008600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2961800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2944500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2822200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2675400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2532300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2649200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2763600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2761000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3121100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3046400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2996200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2986600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2681800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2120300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2011900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1877300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1957700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5431,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E81" s="3">
         <v>207000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>192600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>157500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>202400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>182200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>49400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>111100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>183900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>206200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>90100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>174000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>215000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>55000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>129300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>265400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>530800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>54900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>74500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-124400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>15800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5612,82 +5810,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>42400</v>
+        <v>42800</v>
       </c>
       <c r="E83" s="3">
         <v>42400</v>
       </c>
       <c r="F83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="G83" s="3">
         <v>43400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>39100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>35600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5760,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5834,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5908,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5982,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6056,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-608800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>575800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>316100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>231200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-303000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>340900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>234600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-328300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>458900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>255100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>51700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-277200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-45600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>220600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>271800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-78400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>59400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>295000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-34900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>109700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6158,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-110600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-48400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-44100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6306,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6380,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-93400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>45100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>14200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-31100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6482,52 +6715,53 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-66800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-61000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-61900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-62000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-57200</v>
       </c>
       <c r="J96" s="3">
         <v>-57200</v>
       </c>
       <c r="K96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-57100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-57000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-52000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-52300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-52800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-22300</v>
       </c>
       <c r="R96" s="3">
         <v>-22300</v>
@@ -6539,25 +6773,28 @@
         <v>-22300</v>
       </c>
       <c r="U96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="V96" s="3">
         <v>-22200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-22300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-22200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-22100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6630,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6704,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6778,226 +7021,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E100" s="3">
         <v>515500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-380900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-682900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>111200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>204700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-63900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-361300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-299900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>474800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-461800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>135700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-48500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>250400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>122200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-330300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-269100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>113900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1457400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-94500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-246300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>96500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-136600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>226400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-151700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>175800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-387500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>311800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-152200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>271800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-45600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-93500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>97100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-80600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>336300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-52200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-149900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>76700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>189200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>17100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>31900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-66500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,346 +662,359 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1377200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1452300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1350800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1413600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1194000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1242000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1195600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1152200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1084600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1155300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1250000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1197300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1014300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1206100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1192100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1099400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>923600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1154400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1107900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>979600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>646200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>656800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>596000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>688400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>899700</v>
+      </c>
+      <c r="E9" s="3">
         <v>861300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>778100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>798900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>681200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>710200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>683200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>650800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>618200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>632600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>688500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>641300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>581900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>655600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>647400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>607700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>527100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>625600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>575500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>594800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>380300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>422400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>379800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>423200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>477500</v>
+      </c>
+      <c r="E10" s="3">
         <v>591000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>572700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>614700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>512800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>531800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>512400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>501400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>466400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>522700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>561500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>556000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>432400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>550500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>544700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>491700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>396500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>528800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>532400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>384800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>265900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>234400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>216200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>265200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,85 +1042,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E12" s="3">
         <v>79500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>71800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>85300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>79500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>65900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>74000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>84600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>71700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>64300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>67300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>76400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>77400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>73100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>71200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>76800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>70100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>75900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>64900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>51100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>30200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>32000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>28200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>36500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1183,85 +1200,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>79500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>78500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>72500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>62900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>49800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>148700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-10600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>102800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>53200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>23400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>28700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,8 +1360,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1166600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1216400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1047500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1135000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>977000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>953400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>934900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1005300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>888600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>887400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>958600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1085200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>854400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>938300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>910300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>921900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>818500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1021100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>782900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>906600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>572100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>590900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>524600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>646000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>210600</v>
+      </c>
+      <c r="E18" s="3">
         <v>235900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>303300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>278600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>217000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>288600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>260700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>146900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>196000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>267900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>291400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>159900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>267800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>281800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>177500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>105100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>133300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>325000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>73000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>74100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>65900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>71400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>42400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,393 +1579,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4800</v>
       </c>
       <c r="I20" s="3">
         <v>-4800</v>
       </c>
       <c r="J20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2200</v>
       </c>
       <c r="M20" s="3">
         <v>-2200</v>
       </c>
       <c r="N20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-29200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>253700</v>
+      </c>
+      <c r="E21" s="3">
         <v>274800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>341400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>315700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>255300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>326300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>298500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>183800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>225900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>305800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>328300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>197700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>301700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>315700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>235700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>144100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>171900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>359400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>85600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>102800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>91700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>93700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>54600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E22" s="3">
         <v>35300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>39500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>32800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>33400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>34400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>33900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>28700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>18400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>15700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>17100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E23" s="3">
         <v>196700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>269100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>240300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>178800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>251200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>223500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>107500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>148900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>225000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>248400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>119500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>225000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>243900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>146100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>72900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>98700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>290700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>52000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>54400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>12100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E24" s="3">
         <v>54700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>42300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>68600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-10600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>60500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-52900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-11600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2008,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E26" s="3">
         <v>142000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>226800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>223000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>170100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>217800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>191300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>130500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>195800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>213700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>110800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>194400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>207600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>156700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>50900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>99800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>230200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>68000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>70900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>45000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>9400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E27" s="3">
         <v>144700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>222200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>228400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>167200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>217000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>190300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>41000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>129500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>194700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>213700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>192100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>205400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>153800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>96600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>226800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>67700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>70000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>47900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>44400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2239,85 +2297,91 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-10800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-15200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-35800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-9700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-14600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-8100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>8400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-18400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-10800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-7500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-33500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-21300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>9600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-112300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>6400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>32700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>38600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>463100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-15100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>26600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-168800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>7000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2393,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2470,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4800</v>
       </c>
       <c r="I32" s="3">
         <v>4800</v>
       </c>
       <c r="J32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2200</v>
       </c>
       <c r="M32" s="3">
         <v>2200</v>
       </c>
       <c r="N32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>29200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>13200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E33" s="3">
         <v>133900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>207000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>192600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>157500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>202400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>182200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>49400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>111100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>183900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>206200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>90100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>174000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>215000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>41500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>55000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>129300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>265400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>530800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>54900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>74500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-124400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>15800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2701,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E35" s="3">
         <v>133900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>207000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>192600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>157500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>202400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>182200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>49400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>111100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>183900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>206200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>90100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>174000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>215000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>41500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>55000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>129300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>265400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>530800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>54900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>74500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-124400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>15800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2889,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2918,85 +3004,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>363800</v>
+      </c>
+      <c r="E41" s="3">
         <v>591500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>365100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>516800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>341000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>728500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>416700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>568900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>297100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>342700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>436200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>339100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>419700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>109500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>134400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>176500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>326400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>359700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>283000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>93800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>113200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>96100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>64200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3072,348 +3162,363 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2599900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2885100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2868600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2583700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2503500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2627300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2532800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2330300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2137900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2342400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2460100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2231200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2001100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2384000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2530200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2143800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1901900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2194100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2399700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2043500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1457600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1442300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1630600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1692500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1731500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1590400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1590700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1405700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1450500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1398100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1254700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1095600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1155500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1138500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1062700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1017000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1167400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1153400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1137100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1025500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>995400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>958700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1035200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>992500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>614800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>546300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>526400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>478900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>415400</v>
+      </c>
+      <c r="E45" s="3">
         <v>450400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>474000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>431400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>433200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>443400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>462900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>380800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>424700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>464600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>513000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>487500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>489400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>476200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>427300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>726500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>417400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>513800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>541000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>333700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1408000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1384000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1301100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>613600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5110600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5517400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5298400</v>
       </c>
-      <c r="F46" s="3">
-        <v>4937600</v>
-      </c>
       <c r="G46" s="3">
+        <v>5053800</v>
+      </c>
+      <c r="H46" s="3">
         <v>4728200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5197300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4667100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4375600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4015200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4288200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4472000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4074800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4077600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4097000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4204100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4030200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3491200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3993000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4335600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3652700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3574200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3485800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3554200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2849200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E47" s="3">
         <v>78500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>66600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>78200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>82200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>102200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1700</v>
       </c>
       <c r="L47" s="3">
         <v>1700</v>
       </c>
       <c r="M47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="N47" s="3">
         <v>700</v>
@@ -3431,188 +3536,197 @@
         <v>700</v>
       </c>
       <c r="S47" s="3">
+        <v>700</v>
+      </c>
+      <c r="T47" s="3">
         <v>81900</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1500</v>
       </c>
       <c r="U47" s="3">
         <v>1500</v>
       </c>
       <c r="V47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="W47" s="3">
         <v>1400</v>
       </c>
       <c r="X47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>1000</v>
       </c>
       <c r="Z47" s="3">
         <v>1000</v>
       </c>
       <c r="AA47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>913500</v>
+      </c>
+      <c r="E48" s="3">
         <v>925600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>938800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>952200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>922500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>925100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>905700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>919000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>889600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>884300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>891500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>922700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>895300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>896100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>909300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2270700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1002700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1014300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1030400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1025200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>547000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>538300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>535100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2315600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4046800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3902200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3954600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3985200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4010500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4040400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4049900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4094100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4074800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4064600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4071300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4096500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4098700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4142800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4150600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4171500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4206300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3974000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4048000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3830700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1276900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1264600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1235400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1218600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3688,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3765,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>618900</v>
+      </c>
+      <c r="E52" s="3">
         <v>620500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>702800</v>
       </c>
-      <c r="F52" s="3">
-        <v>639700</v>
-      </c>
       <c r="G52" s="3">
+        <v>672700</v>
+      </c>
+      <c r="H52" s="3">
         <v>670800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>697100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>698400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>794600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>790900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>754900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>753700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>778000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>731500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>687900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>681300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1015000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>624800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>735400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>733600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>696300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>657300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>694300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>710600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1532400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3919,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10764700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11044200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10904800</v>
       </c>
-      <c r="F54" s="3">
-        <v>10581300</v>
-      </c>
       <c r="G54" s="3">
+        <v>10673100</v>
+      </c>
+      <c r="H54" s="3">
         <v>10410200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10942100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10423300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10186400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9772200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9993700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10189200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9872700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9803800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9824500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9946000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9974300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9406900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9718200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10149100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9206300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6056800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5984300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6036300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6139300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4025,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4054,470 +4184,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1122200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1057400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1135000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1101400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1158000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1074400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>946700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>757200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>842200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>838400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>667000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>785700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>884500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>795500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>784200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>947200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>914100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>714200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>437700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>433500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>390900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>317400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>826300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1155100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1040400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>440800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>762000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1185800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>974400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>338300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>194100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>505900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>250200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>227700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>553600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1094200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>993800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>547700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>149400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>174500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>328900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>192600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>214200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>192500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>217300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>94200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1760200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1708400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1731500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1944500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1564200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1497700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1331300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1544000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1417000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1334800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1367900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1596100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1350200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1459300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1650200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1337900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1326600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1443000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1302600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>978700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>915900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>880600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1341300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3632200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3985700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3829300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3520300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3427600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3841500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3380100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2829000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2368300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2682900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2456500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2723900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2521500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3230100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3337600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2993400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2271500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2448300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2686000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2209400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1630600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1541900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1488800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1438200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2732500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2731700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2732400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2731700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2631700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2630800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2631400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2929500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3028300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3027500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3531800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3031100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3032400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2145000</v>
       </c>
       <c r="R61" s="3">
         <v>2145000</v>
       </c>
       <c r="S61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="T61" s="3">
         <v>2593300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2892900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2993200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2993000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1492900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1592300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1790400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1798800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1196400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1199500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1260900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1277400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1293900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1335700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1380500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1443700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1407200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1432400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1498200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1556300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1570600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1655200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1671600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1625500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1463800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1351300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1455200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1296800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>798100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>823400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>865700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>909300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4593,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4670,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7576500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7935700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7845700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7548800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7378800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7831400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7414700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7224600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6827700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7171500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7513800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7340400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7154600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7060900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7185000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6853200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6360500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6722000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7162500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6524500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3936500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3972400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4159000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4181600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4853,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4930,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5007,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5084,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5161,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>5354800</v>
+      </c>
+      <c r="E72" s="3">
         <v>5199100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5131800</v>
       </c>
-      <c r="F72" s="3">
-        <v>4991300</v>
-      </c>
       <c r="G72" s="3">
+        <v>5092900</v>
+      </c>
+      <c r="H72" s="3">
         <v>4864900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4767900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4627000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4506400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4519300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4465100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4337900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4188800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4249000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4210500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4088400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4334300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4355100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4304700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4197300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3952400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3444600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3411700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3359100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3505500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5315,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5392,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5469,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3188200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3108500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3059100</v>
       </c>
-      <c r="F76" s="3">
-        <v>3032500</v>
-      </c>
       <c r="G76" s="3">
+        <v>3124300</v>
+      </c>
+      <c r="H76" s="3">
         <v>3031400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3110700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3008600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2961800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2944500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2822200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2675400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2532300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2649200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2763600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2761000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3121100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3046400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2996200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2986600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2681800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2120300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2011900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1877300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1957700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5623,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E81" s="3">
         <v>133900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>207000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>192600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>157500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>202400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>182200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>49400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>111100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>183900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>206200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>90100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>174000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>215000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>41500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>55000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>129300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>265400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>530800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>54900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>74500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-124400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>15800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5811,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E83" s="3">
         <v>42800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>42400</v>
       </c>
       <c r="F83" s="3">
         <v>42400</v>
       </c>
       <c r="G83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="H83" s="3">
         <v>43400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>22500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>35600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5965,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6042,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6119,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6196,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6273,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>397400</v>
+      </c>
+      <c r="E89" s="3">
         <v>175300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-608800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>575800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>316100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>231200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-303000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>340900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>234600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-328300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>458900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>255100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>51700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-277200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-45600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>220600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>271800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-78400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>59400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>295000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-34900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>109700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6379,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-110600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-44100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6533,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6610,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-228900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-93400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>45100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>14200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-31100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6716,8 +6949,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6725,46 +6959,46 @@
         <v>-66900</v>
       </c>
       <c r="E96" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-66800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-61000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-61900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-62000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-57200</v>
       </c>
       <c r="K96" s="3">
         <v>-57200</v>
       </c>
       <c r="L96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="M96" s="3">
         <v>-57100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-57000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-52000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-52300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-22300</v>
       </c>
       <c r="S96" s="3">
         <v>-22300</v>
@@ -6776,25 +7010,28 @@
         <v>-22300</v>
       </c>
       <c r="V96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="W96" s="3">
         <v>-22200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-22300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-22200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-22100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6870,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6947,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7024,235 +7267,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="E100" s="3">
         <v>70200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>515500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-380900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-682900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>111200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>204700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-63900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-361300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-299900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>474800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-461800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>135700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>250400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>122200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-330300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-269100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>113900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1457400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-94500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-246300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>96500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-136600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-227700</v>
+      </c>
+      <c r="E102" s="3">
         <v>226400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-151700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>175800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-387500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>311800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-152200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>271800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-93500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>97100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-80600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>336300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-52200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-149900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-33300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>76700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>189200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-19400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>17100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>31900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-66500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,359 +662,371 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1622000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1377200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1452300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1350800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1413600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1194000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1242000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1195600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1152200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1084600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1155300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1250000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1197300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1014300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1206100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1192100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1099400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>923600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1154400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1107900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>979600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>646200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>656800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>596000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>688400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>936400</v>
+      </c>
+      <c r="E9" s="3">
         <v>899700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>861300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>778100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>798900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>681200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>710200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>683200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>650800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>618200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>632600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>688500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>641300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>581900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>655600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>647400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>607700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>527100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>625600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>575500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>594800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>380300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>422400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>379800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>423200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>685600</v>
+      </c>
+      <c r="E10" s="3">
         <v>477500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>591000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>572700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>614700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>512800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>531800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>512400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>501400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>466400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>522700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>561500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>556000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>432400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>550500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>544700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>491700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>396500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>528800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>532400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>384800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>265900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>234400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>216200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>265200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,88 +1055,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E12" s="3">
         <v>78500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>79500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>71800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>79500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>65900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>74000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>84600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>71700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>64300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>67300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>76400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>77400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>73100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>71200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>76800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>70100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>75900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>64900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>51100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>30200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>32000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>28200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>36500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1203,88 +1219,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>79500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>78500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>72500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>27200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>21700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>62900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>49800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>148700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-10600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>102800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>53200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>23400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>28700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1363,8 +1385,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1227500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1166600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1216400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1047500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1135000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>977000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>953400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>934900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1005300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>888600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>887400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>958600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1085200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>854400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>938300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>910300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>921900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>818500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1021100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>782900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>906600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>572100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>590900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>524600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>646000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>394500</v>
+      </c>
+      <c r="E18" s="3">
         <v>210600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>235900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>303300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>278600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>217000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>288600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>260700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>146900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>196000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>267900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>291400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>112100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>159900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>267800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>281800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>177500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>105100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>133300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>325000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>73000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>74100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>65900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>71400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>42400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1580,408 +1612,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4800</v>
       </c>
       <c r="J20" s="3">
         <v>-4800</v>
       </c>
       <c r="K20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2200</v>
       </c>
       <c r="N20" s="3">
         <v>-2200</v>
       </c>
       <c r="O20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-29200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-13200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>435200</v>
+      </c>
+      <c r="E21" s="3">
         <v>253700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>274800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>341400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>315700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>255300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>326300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>298500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>183800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>225900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>305800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>328300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>197700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>301700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>315700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>235700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>144100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>171900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>359400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>85600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>102800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>91700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>93700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>54600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E22" s="3">
         <v>41800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>35300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>29900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>41600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>39500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>34500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>32800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>33400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>34400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>33900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>28700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>18400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>17200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>15700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>17100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>347600</v>
+      </c>
+      <c r="E23" s="3">
         <v>170500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>196700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>269100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>240300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>178800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>251200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>223500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>107500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>148900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>225000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>248400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>119500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>225000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>243900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>146100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>72900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>98700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>290700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>52000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>54400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>12100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E24" s="3">
         <v>36000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>33400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>68600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>60500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-52900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2060,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>335400</v>
+      </c>
+      <c r="E26" s="3">
         <v>134500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>142000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>226800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>223000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>170100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>217800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>191300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>130500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>195800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>213700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>110800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>194400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>207600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>156700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>99800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>230200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>68000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>70900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>48700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>45000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>9400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E27" s="3">
         <v>136900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>144700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>222200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>228400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>167200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>217000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>190300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>129500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>194700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>213700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>192100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>205400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>153800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>96600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>226800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>67700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>70000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>47900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>44400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>8800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2300,88 +2357,94 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-16200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-10800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-15200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-35800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-9700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-14600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-8100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>8400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-18400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-10800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-7500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-33500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-18100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>9600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-112300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>6400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>32700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>38600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>463100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-15100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>26600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-168800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>7000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2460,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2540,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4800</v>
       </c>
       <c r="J32" s="3">
         <v>4800</v>
       </c>
       <c r="K32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2200</v>
       </c>
       <c r="N32" s="3">
         <v>2200</v>
       </c>
       <c r="O32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>29200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>13200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E33" s="3">
         <v>120700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>133900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>207000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>192600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>157500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>202400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>182200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>183900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>206200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>90100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>174000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>215000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>41500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>55000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>129300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>265400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>530800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>54900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>74500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-124400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>15800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2780,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E35" s="3">
         <v>120700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>133900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>207000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>192600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>157500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>202400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>182200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>183900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>206200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>90100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>174000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>215000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>41500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>55000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>129300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>265400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>530800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>54900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>74500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-124400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>15800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2975,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3005,88 +3090,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>572000</v>
+      </c>
+      <c r="E41" s="3">
         <v>363800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>591500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>365100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>516800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>341000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>728500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>416700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>568900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>297100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>342700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>436200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>339100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>419700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>83400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>109500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>134400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>176500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>326400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>359700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>283000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>93800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>113200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>96100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>64200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3165,363 +3254,378 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2871400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2599900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2885100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2868600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2583700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2503500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2627300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2532800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2330300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2137900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2342400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2460100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2231200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2001100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2384000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2530200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2143800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1901900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2194100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2399700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2043500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1457600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1442300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1630600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1692500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1651600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1731500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1590400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1590700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1405700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1450500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1398100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1254700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1095600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1155500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1138500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1062700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1017000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1167400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1153400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1137100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1025500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>995400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>958700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1035200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>992500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>614800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>546300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>526400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>478900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>343600</v>
+      </c>
+      <c r="E45" s="3">
         <v>415400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>450400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>474000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>431400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>433200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>443400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>462900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>380800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>424700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>464600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>513000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>487500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>489400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>476200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>427300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>726500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>417400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>513800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>541000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>333700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1408000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1384000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1301100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>613600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5438600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5110600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5517400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5298400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5053800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4728200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5197300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4667100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4375600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4015200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4288200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4472000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4074800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4077600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4097000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4204100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4030200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3491200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3993000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4335600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3652700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3574200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3485800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3554200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2849200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E47" s="3">
         <v>74900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>78500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>66600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>78200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>82200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>102200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1700</v>
       </c>
       <c r="M47" s="3">
         <v>1700</v>
       </c>
       <c r="N47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="O47" s="3">
         <v>700</v>
@@ -3539,194 +3643,203 @@
         <v>700</v>
       </c>
       <c r="T47" s="3">
+        <v>700</v>
+      </c>
+      <c r="U47" s="3">
         <v>81900</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1500</v>
       </c>
       <c r="V47" s="3">
         <v>1500</v>
       </c>
       <c r="W47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="X47" s="3">
         <v>1400</v>
       </c>
       <c r="Y47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z47" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>1000</v>
       </c>
       <c r="AA47" s="3">
         <v>1000</v>
       </c>
       <c r="AB47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>973400</v>
+      </c>
+      <c r="E48" s="3">
         <v>913500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>925600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>938800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>952200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>922500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>925100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>905700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>919000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>889600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>884300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>891500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>922700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>895300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>896100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>909300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2270700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1002700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1014300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1030400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1025200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>547000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>538300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>535100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2315600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4097400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4046800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3902200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3954600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3985200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4010500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4040400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4049900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4094100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4074800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4064600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4071300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4096500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4098700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4142800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4150600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4171500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4206300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3974000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4048000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3830700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1276900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1264600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1235400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1218600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3805,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3885,88 +4001,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>586600</v>
+      </c>
+      <c r="E52" s="3">
         <v>618900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>620500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>702800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>672700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>670800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>697100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>698400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>794600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>790900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>754900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>753700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>778000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>731500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>687900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>681300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1015000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>624800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>735400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>733600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>696300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>657300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>694300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>710600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1532400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4045,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>11171300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10764700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11044200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10904800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10673100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10410200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10942100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10423300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10186400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9772200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9993700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10189200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9872700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9803800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9824500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9946000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9974300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9406900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9718200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10149100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9206300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6056800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5984300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6036300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6139300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4155,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4185,488 +4314,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1252200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1045700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1122200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1057400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1135000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1101400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1158000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1074400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>946700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>757200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>842200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>838400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>667000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>785700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>884500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>795500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>784200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>947200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>914100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>714200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>437700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>433500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>390900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>317400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>540800</v>
+      </c>
+      <c r="E58" s="3">
         <v>826300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1155100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1040400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>440800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>762000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1185800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>974400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>338300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>194100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>505900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>250200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>227700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>553600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1094200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>993800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>547700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>149400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>174500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>328900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>192600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>214200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>192500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>217300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>94200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2006600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1760200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1708400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1731500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1944500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1564200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1497700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1331300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1544000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1417000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1334800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1367900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1596100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1350200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1459300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1650200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1337900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1326600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1443000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1302600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>978700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>915900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>880600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1341300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3799600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3632200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3985700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3829300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3520300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3427600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3841500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3380100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2829000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2368300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2682900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2456500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2723900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2521500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3230100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3337600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2993400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2271500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2448300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2686000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2209400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1630600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1541900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1488800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1438200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2733200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2732500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2731700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2732400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2731700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2631700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2630800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2631400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2929500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3028300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3027500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3531800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3031100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3032400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="R61" s="3">
-        <v>2145000</v>
       </c>
       <c r="S61" s="3">
         <v>2145000</v>
       </c>
       <c r="T61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="U61" s="3">
         <v>2593300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2892900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2993200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2993000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1492900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1592300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1790400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1798800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1237600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1196400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1199500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1260900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1277400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1293900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1335700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1380500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1443700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1407200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1432400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1498200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1556300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1570600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1655200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1671600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1625500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1463800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1351300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1455200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1296800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>798100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>823400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>865700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>909300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4745,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4825,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4905,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7793400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7576500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7935700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7845700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7548800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7378800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7831400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7414700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7224600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6827700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7171500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7513800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7340400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7154600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7060900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7185000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6853200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6360500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6722000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7162500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6524500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3936500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3972400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4159000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4181600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5015,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5095,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5175,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5255,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5335,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>5555900</v>
+      </c>
+      <c r="E72" s="3">
         <v>5354800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5199100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5131800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5092900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4864900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4767900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4627000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4506400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4519300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4465100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4337900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4188800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4249000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4210500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4088400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4334300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4355100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4304700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4197300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3952400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3444600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3411700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3359100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3505500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5495,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5575,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5655,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3377900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3188200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3108500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3059100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3124300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3031400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3110700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3008600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2961800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2944500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2822200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2675400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2532300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2649200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2763600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2761000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3121100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3046400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2996200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2986600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2681800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2120300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2011900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1877300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1957700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5815,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E81" s="3">
         <v>120700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>133900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>207000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>192600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>157500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>202400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>182200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>183900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>206200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>90100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>174000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>215000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>41500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>55000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>129300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>265400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>530800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>54900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>74500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-124400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>15800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6010,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E83" s="3">
         <v>41400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>42400</v>
       </c>
       <c r="G83" s="3">
         <v>42400</v>
       </c>
       <c r="H83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="I83" s="3">
         <v>43400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>41500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>25100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>22500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>23600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>35600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6170,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6250,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6330,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6410,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6490,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>618500</v>
+      </c>
+      <c r="E89" s="3">
         <v>397400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>175300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-608800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>575800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>316100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>231200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-303000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>340900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>234600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-328300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>458900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>255100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>51700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-277200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-45600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>220600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>271800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-78400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>59400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>295000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-34900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>109700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6600,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-50300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-110600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-48400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-44100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6760,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6840,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-228900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-76400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-93400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>45100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>14200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-31100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6950,8 +7182,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6962,46 +7195,46 @@
         <v>-66900</v>
       </c>
       <c r="F96" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-66800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-61000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-61900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-62000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-57200</v>
       </c>
       <c r="L96" s="3">
         <v>-57200</v>
       </c>
       <c r="M96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="N96" s="3">
         <v>-57100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-57000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-52000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-52300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-52800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-22300</v>
       </c>
       <c r="T96" s="3">
         <v>-22300</v>
@@ -7013,25 +7246,28 @@
         <v>-22300</v>
       </c>
       <c r="W96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="X96" s="3">
         <v>-22200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-22300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-22100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7110,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7190,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7270,244 +7512,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-435100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-388000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>70200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>515500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-380900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-682900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>111200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>204700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-63900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-361300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-299900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>474800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-461800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>135700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-48500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>250400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>122200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-330300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-269100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>113900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1457400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-94500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-246300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>96500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-136600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-227700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>226400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-151700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>175800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-387500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>311800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-152200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>271800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-93500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>97100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-80600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>336300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-26100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-52200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-149900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-33300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>76700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>189200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-19400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>17100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>31900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-66500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,371 +662,384 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1344300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1622000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1377200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1452300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1350800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1413600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1194000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1242000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1195600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1152200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1084600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1155300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1250000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1197300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1014300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1206100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1192100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1099400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>923600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1154400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1107900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>979600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>646200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>656800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>596000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>688400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E9" s="3">
         <v>936400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>899700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>861300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>778100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>798900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>681200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>710200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>683200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>650800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>618200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>632600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>688500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>641300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>581900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>655600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>647400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>607700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>527100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>625600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>575500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>594800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>380300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>422400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>379800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>423200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>581300</v>
+      </c>
+      <c r="E10" s="3">
         <v>685600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>477500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>591000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>572700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>614700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>512800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>531800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>512400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>501400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>466400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>522700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>561500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>556000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>432400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>550500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>544700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>491700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>396500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>528800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>532400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>384800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>265900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>234400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>216200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>265200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,91 +1069,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E12" s="3">
         <v>84400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>78500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>79500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>71800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>85300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>79500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>65900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>74000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>84600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>71700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>67300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>76400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>77400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>73100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>71200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>76800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>70100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>75900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>64900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>51100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>30200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>32000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>28200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>36500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1222,91 +1239,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-42000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>79500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>78500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>72500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>27200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>21700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>62900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>49800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>148700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-10600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>102800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>53200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>23400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>28700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1388,8 +1411,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1039800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1227500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1166600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1216400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1047500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1135000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>977000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>953400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>934900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1005300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>888600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>887400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>958600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1085200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>854400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>938300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>910300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>921900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>818500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1021100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>782900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>906600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>572100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>590900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>524600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>646000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>304500</v>
+      </c>
+      <c r="E18" s="3">
         <v>394500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>210600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>235900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>303300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>278600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>217000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>288600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>260700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>146900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>196000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>267900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>291400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>159900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>267800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>281800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>177500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>105100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>133300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>325000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>73000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>74100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>65900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>71400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>42400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1613,423 +1646,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-4800</v>
       </c>
       <c r="K20" s="3">
         <v>-4800</v>
       </c>
       <c r="L20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2200</v>
       </c>
       <c r="O20" s="3">
         <v>-2200</v>
       </c>
       <c r="P20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-13200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E21" s="3">
         <v>435200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>253700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>274800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>341400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>315700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>255300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>326300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>298500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>183800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>225900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>305800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>328300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>150400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>197700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>301700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>315700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>235700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>144100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>171900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>359400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>85600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>102800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>91700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>93700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>54600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E22" s="3">
         <v>44800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>41800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>32600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>41600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>39500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>34500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>32800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>33400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>34400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>33900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>28700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>18400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>17200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>15700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>17100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>248500</v>
+      </c>
+      <c r="E23" s="3">
         <v>347600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>170500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>196700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>269100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>240300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>178800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>251200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>223500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>107500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>148900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>225000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>248400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>119500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>225000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>243900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>146100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>72900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>98700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>290700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>59300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>52000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>54400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>12100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E24" s="3">
         <v>12200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>36000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>54700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>68600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-10600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>60500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-52900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2111,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E26" s="3">
         <v>335400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>134500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>142000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>226800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>223000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>170100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>217800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>191300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>130500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>195800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>213700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>110800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>194400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>207600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>156700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>50900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>99800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>230200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>68000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>70900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>48700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>45000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>9400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E27" s="3">
         <v>328300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>136900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>144700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>222200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>228400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>167200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>217000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>190300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>129500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>194700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>213700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>192100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>205400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>153800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>96600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>226800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>67700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>70000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>47900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>44400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>8800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2360,91 +2418,97 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-55000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-16200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-10800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-15200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-35800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-9700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-14600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-8100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>8400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-18400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-10800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-7500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-21300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-18100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>9600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-112300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>6400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>32700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>38600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>463100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-15100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>26600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-168800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>7000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2609,174 +2676,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4800</v>
       </c>
       <c r="K32" s="3">
         <v>4800</v>
       </c>
       <c r="L32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2200</v>
       </c>
       <c r="O32" s="3">
         <v>2200</v>
       </c>
       <c r="P32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>29200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>13200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E33" s="3">
         <v>273300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>120700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>133900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>207000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>192600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>157500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>202400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>182200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>49400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>111100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>183900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>206200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>90100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>174000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>215000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>41500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>55000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>129300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>265400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>530800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>54900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>74500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-124400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>15800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2858,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E35" s="3">
         <v>273300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>120700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>133900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>207000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>192600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>157500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>202400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>182200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>49400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>111100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>183900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>206200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>90100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>174000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>215000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>41500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>55000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>129300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>265400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>530800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>54900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>74500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-124400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>15800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3060,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3091,91 +3177,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>494400</v>
+      </c>
+      <c r="E41" s="3">
         <v>572000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>363800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>591500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>516800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>341000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>728500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>416700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>568900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>297100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>342700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>436200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>339100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>419700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>83400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>109500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>134400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>176500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>326400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>359700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>283000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>93800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>113200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>96100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>64200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3257,378 +3347,393 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>3202100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2871400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2599900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2885100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2868600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2583700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2503500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2627300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2532800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2330300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2137900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2342400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2460100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2231200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2001100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2384000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2530200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2143800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1901900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2194100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2399700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2043500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1457600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1442300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1630600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1692500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1910900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1651600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1731500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1590400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1590700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1405700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1450500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1398100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1254700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1095600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1155500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1138500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1062700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1017000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1167400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1153400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1137100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1025500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>995400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>958700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1035200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>992500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>614800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>546300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>526400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>478900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>414400</v>
+      </c>
+      <c r="E45" s="3">
         <v>343600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>415400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>450400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>474000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>431400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>433200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>443400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>462900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>380800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>424700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>464600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>513000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>487500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>489400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>476200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>427300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>726500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>417400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>513800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>541000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>333700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1408000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1384000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1301100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>613600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6021800</v>
+      </c>
+      <c r="E46" s="3">
         <v>5438600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5110600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5517400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5298400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5053800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4728200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5197300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4667100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4375600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4015200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4288200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4472000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4074800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4077600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4097000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4204100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4030200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3491200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3993000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4335600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3652700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3574200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3485800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3554200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2849200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E47" s="3">
         <v>75300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>74900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>78500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>66600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>78200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>82200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1700</v>
       </c>
       <c r="N47" s="3">
         <v>1700</v>
       </c>
       <c r="O47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="P47" s="3">
         <v>700</v>
@@ -3646,200 +3751,209 @@
         <v>700</v>
       </c>
       <c r="U47" s="3">
+        <v>700</v>
+      </c>
+      <c r="V47" s="3">
         <v>81900</v>
-      </c>
-      <c r="V47" s="3">
-        <v>1500</v>
       </c>
       <c r="W47" s="3">
         <v>1500</v>
       </c>
       <c r="X47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Y47" s="3">
         <v>1400</v>
       </c>
       <c r="Z47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA47" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>1000</v>
       </c>
       <c r="AB47" s="3">
         <v>1000</v>
       </c>
       <c r="AC47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>989700</v>
+      </c>
+      <c r="E48" s="3">
         <v>973400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>913500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>925600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>938800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>952200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>922500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>925100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>905700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>919000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>889600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>884300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>891500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>922700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>895300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>896100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>909300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2270700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1002700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1014300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1030400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1025200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>547000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>538300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>535100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2315600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4092100</v>
+      </c>
+      <c r="E49" s="3">
         <v>4097400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4046800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3902200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3954600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3985200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4010500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4040400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4049900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4094100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4074800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4064600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4071300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4096500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4098700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4142800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4150600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4171500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4206300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3974000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4048000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3830700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1276900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1264600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1235400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1218600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3921,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4004,91 +4121,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>610800</v>
+      </c>
+      <c r="E52" s="3">
         <v>586600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>618900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>620500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>702800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>672700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>670800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>697100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>698400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>794600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>790900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>754900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>753700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>778000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>731500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>687900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>681300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1015000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>624800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>735400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>733600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>696300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>657300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>694300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>710600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1532400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4170,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>11732100</v>
+      </c>
+      <c r="E54" s="3">
         <v>11171300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10764700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11044200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10904800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10673100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10410200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10942100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10423300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10186400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9772200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9993700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10189200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9872700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9803800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9824500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9946000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9974300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9406900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9718200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10149100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9206300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6056800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5984300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6036300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6139300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4284,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4315,506 +4445,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1182800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1252200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1045700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1122200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1057400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1135000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1101400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1158000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1074400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>946700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>757200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>842200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>838400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>667000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>785700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>884500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>795500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>784200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>947200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>914100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>714200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>437700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>433500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>390900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>317400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1878600</v>
+      </c>
+      <c r="E58" s="3">
         <v>540800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>826300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1155100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1040400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>440800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>762000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1185800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>974400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>338300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>194100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>505900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>250200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>227700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>553600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1094200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>993800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>547700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>149400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>174500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>328900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>192600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>214200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>192500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>217300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>94200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1606900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2006600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1760200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1708400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1731500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1944500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1564200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1497700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1331300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1544000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1417000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1334800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1367900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1596100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1350200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1459300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1650200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1337900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1326600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1443000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1302600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>978700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>915900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>880600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1341300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4668300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3799600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3632200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3985700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3829300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3520300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3427600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3841500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3380100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2829000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2368300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2682900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2456500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2723900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2521500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3230100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3337600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2993400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2271500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2448300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2686000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2209400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1630600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1541900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1488800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1438200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2334000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2733200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2732500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2731700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2732400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2731700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2631700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2630800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2631400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2929500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3028300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3027500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3531800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3031100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3032400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="S61" s="3">
-        <v>2145000</v>
       </c>
       <c r="T61" s="3">
         <v>2145000</v>
       </c>
       <c r="U61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="V61" s="3">
         <v>2593300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2892900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2993200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2993000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1492900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1592300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1790400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1798800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1235300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1237600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1196400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1199500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1260900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1277400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1293900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1335700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1380500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1443700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1407200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1432400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1498200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1556300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1570600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1655200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1671600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1625500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1463800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1351300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1455200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1296800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>798100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>823400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>865700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>909300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4896,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4979,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5062,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8261400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7793400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7576500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7935700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7845700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7548800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7378800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7831400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7414700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7224600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6827700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7171500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7513800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7340400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7154600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7060900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7185000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6853200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6360500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6722000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7162500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6524500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3936500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3972400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4159000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4181600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5176,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5259,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5342,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5425,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5508,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>5679200</v>
+      </c>
+      <c r="E72" s="3">
         <v>5555900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5354800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5199100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5131800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5092900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4864900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4767900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4627000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4506400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4519300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4465100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4337900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4188800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4249000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4210500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4088400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4334300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4355100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4304700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4197300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3952400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3444600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3411700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3359100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3505500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5674,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5757,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5840,91 +6023,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3470700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3377900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3188200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3108500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3059100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3124300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3031400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3110700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3008600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2961800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2944500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2822200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2675400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2532300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2649200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2763600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2761000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3121100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3046400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2996200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2986600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2681800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2120300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2011900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1877300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1957700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6006,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E81" s="3">
         <v>273300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>120700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>133900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>207000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>192600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>157500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>202400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>182200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>49400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>111100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>183900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>206200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>90100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>174000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>215000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>41500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>55000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>129300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>265400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>530800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>54900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>74500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-124400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>15800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6208,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E83" s="3">
         <v>42800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>42400</v>
       </c>
       <c r="H83" s="3">
         <v>42400</v>
       </c>
       <c r="I83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="J83" s="3">
         <v>43400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>25100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>23600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>35600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6374,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6457,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6540,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6623,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6706,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-863900</v>
+      </c>
+      <c r="E89" s="3">
         <v>618500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>397400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>175300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-608800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>575800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>316100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>231200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-303000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>340900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>234600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-328300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>458900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>255100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>51700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-277200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-45600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>220600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>271800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-78400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>59400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>295000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-34900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>109700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6820,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-50300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-110600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-48400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-44100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6986,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7069,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E94" s="3">
         <v>27800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-228900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-76400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-93400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>45100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>14200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-31100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-38000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7183,13 +7416,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-66900</v>
+        <v>-72700</v>
       </c>
       <c r="E96" s="3">
         <v>-66900</v>
@@ -7198,46 +7432,46 @@
         <v>-66900</v>
       </c>
       <c r="G96" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-66800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-61000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-61900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-62000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-57200</v>
       </c>
       <c r="M96" s="3">
         <v>-57200</v>
       </c>
       <c r="N96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="O96" s="3">
         <v>-57100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-57000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-52300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-52800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-22300</v>
       </c>
       <c r="U96" s="3">
         <v>-22300</v>
@@ -7249,25 +7483,28 @@
         <v>-22300</v>
       </c>
       <c r="X96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-22200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-22300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-22100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7349,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7432,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7515,253 +7758,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>840300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-435100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-388000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>70200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>515500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-380900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-682900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>111200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>204700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-63900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-361300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-299900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>474800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-461800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>135700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-48500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>250400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>122200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-330300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-269100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>113900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1457400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-94500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-246300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>96500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-136600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E102" s="3">
         <v>208200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-227700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>226400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-151700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>175800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-387500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>311800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-152200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>271800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-45600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-93500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>97100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-80600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>336300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-26100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-52200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-149900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-33300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>76700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>189200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-19400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>17100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>31900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-66500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,384 +662,397 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1014500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1344300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1622000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1377200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1452300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1350800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1413600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1194000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1242000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1195600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1152200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1084600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1155300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1250000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1197300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1014300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1206100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1192100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1099400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>923600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1154400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1107900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>979600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>646200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>656800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>596000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>688400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>581700</v>
+      </c>
+      <c r="E9" s="3">
         <v>763000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>936400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>899700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>861300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>778100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>798900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>681200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>710200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>683200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>650800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>618200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>632600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>688500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>641300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>581900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>655600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>647400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>607700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>527100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>625600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>575500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>594800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>380300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>422400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>379800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>423200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>432800</v>
+      </c>
+      <c r="E10" s="3">
         <v>581300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>685600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>477500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>591000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>572700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>614700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>512800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>531800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>512400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>501400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>466400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>522700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>561500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>556000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>432400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>550500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>544700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>491700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>396500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>528800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>532400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>384800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>265900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>234400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>216200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>265200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,94 +1083,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E12" s="3">
         <v>78400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>84400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>78500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>79500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>71800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>85300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>79500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>65900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>74000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>84600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>71700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>64300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>67300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>76400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>77400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>73100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>71200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>76800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>70100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>75900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>64900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>51100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>30200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>32000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>28200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>36500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,94 +1259,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-42000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>79500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>78500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>72500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>27200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>21700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>62900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>49800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>148700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>102800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>53200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>23400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>9200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>28700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1414,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>882300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1039800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1227500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1166600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1216400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1047500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1135000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>977000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>953400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>934900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1005300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>888600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>887400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>958600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1085200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>854400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>938300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>910300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>921900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>818500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1021100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>782900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>906600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>572100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>590900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>524600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>646000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E18" s="3">
         <v>304500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>394500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>210600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>235900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>303300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>278600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>217000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>288600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>260700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>146900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>196000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>267900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>291400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>112100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>159900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>267800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>281800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>177500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>105100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>133300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>325000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>73000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>74100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>65900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>71400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>42400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1647,8 +1680,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1656,429 +1690,444 @@
         <v>-4600</v>
       </c>
       <c r="E20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-4800</v>
       </c>
       <c r="L20" s="3">
         <v>-4800</v>
       </c>
       <c r="M20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2200</v>
       </c>
       <c r="P20" s="3">
         <v>-2200</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-29200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-13200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E21" s="3">
         <v>344600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>435200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>253700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>274800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>341400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>315700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>255300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>326300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>298500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>183800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>225900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>305800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>328300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>150400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>197700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>301700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>315700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>235700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>144100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>171900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>359400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>85600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>102800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>91700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>93700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>54600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E22" s="3">
         <v>51400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>44800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>41800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>41600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>39500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>34500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>32800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>33400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>34400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>33900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>28700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>18400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>17200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>15700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>17100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E23" s="3">
         <v>248500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>347600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>170500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>196700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>269100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>240300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>178800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>251200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>223500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>107500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>148900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>225000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>248400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>119500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>225000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>243900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>146100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>72900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>98700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>290700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>15100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>59300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>52000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>54400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>12100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E24" s="3">
         <v>41100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>54700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-10600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>22000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>60500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-52900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>9400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2163,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E26" s="3">
         <v>207400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>335400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>134500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>142000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>226800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>223000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>170100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>217800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>191300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>130500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>195800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>213700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>110800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>194400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>207600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>156700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>50900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>99800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>230200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>68000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>70900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>48700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>45000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>9400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E27" s="3">
         <v>207100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>328300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>136900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>144700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>222200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>228400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>167200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>217000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>190300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>129500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>194700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>213700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>111400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>192100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>205400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>153800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>96600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>226800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>67700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>70000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>47900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>44400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>8800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2421,94 +2479,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-11500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-55000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-16200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-10800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-15200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-35800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-9700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-14600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-8100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>8400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-18400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-10800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-33500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-21300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-18100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>9600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-112300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>6400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>32700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>38600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>463100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-15100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>26600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-168800</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>7000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2593,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2679,8 +2746,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2688,171 +2758,177 @@
         <v>4600</v>
       </c>
       <c r="E32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>4800</v>
       </c>
       <c r="L32" s="3">
         <v>4800</v>
       </c>
       <c r="M32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2200</v>
       </c>
       <c r="P32" s="3">
         <v>2200</v>
       </c>
       <c r="Q32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>29200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>13200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E33" s="3">
         <v>195600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>273300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>120700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>133900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>207000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>192600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>157500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>202400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>182200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>111100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>183900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>206200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>90100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>174000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>215000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>41500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>55000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>129300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>265400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>530800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>54900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>74500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-124400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>15800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2937,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E35" s="3">
         <v>195600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>273300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>120700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>133900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>207000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>192600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>157500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>202400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>182200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>49400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>111100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>183900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>206200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>90100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>174000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>215000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>41500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>55000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>129300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>265400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>530800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>54900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>74500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-124400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>15800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3146,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3178,94 +3264,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>941500</v>
+      </c>
+      <c r="E41" s="3">
         <v>494400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>572000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>363800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>591500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>365100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>516800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>341000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>728500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>416700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>568900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>297100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>342700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>436200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>339100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>419700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>83400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>109500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>134400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>176500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>326400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>359700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>283000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>93800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>113200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>96100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>64200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3350,393 +3440,408 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2782800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3202100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2871400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2599900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2885100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2868600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2583700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2503500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2627300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2532800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2330300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2137900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2342400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2460100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2231200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2001100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2384000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2530200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2143800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1901900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2194100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2399700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2043500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1457600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1442300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1630600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1692500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2072300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1910900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1651600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1731500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1590400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1590700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1405700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1450500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1398100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1254700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1095600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1155500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1138500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1062700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1017000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1167400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1153400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1137100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1025500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>995400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>958700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1035200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>992500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>614800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>546300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>526400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>478900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>470200</v>
+      </c>
+      <c r="E45" s="3">
         <v>414400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>343600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>415400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>450400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>474000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>431400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>433200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>443400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>462900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>380800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>424700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>464600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>513000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>487500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>489400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>476200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>427300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>726500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>417400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>513800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>541000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>333700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1408000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1384000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1301100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>613600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6266800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6021800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5438600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5110600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5517400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5298400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5053800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4728200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5197300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4667100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4375600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4015200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4288200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4472000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4074800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4077600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4097000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4204100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4030200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3491200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3993000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4335600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3652700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3574200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3485800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3554200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2849200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E47" s="3">
         <v>17700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>75300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>74900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>78500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>66600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>78200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>102200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1700</v>
       </c>
       <c r="O47" s="3">
         <v>1700</v>
       </c>
       <c r="P47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="Q47" s="3">
         <v>700</v>
@@ -3754,206 +3859,215 @@
         <v>700</v>
       </c>
       <c r="V47" s="3">
+        <v>700</v>
+      </c>
+      <c r="W47" s="3">
         <v>81900</v>
-      </c>
-      <c r="W47" s="3">
-        <v>1500</v>
       </c>
       <c r="X47" s="3">
         <v>1500</v>
       </c>
       <c r="Y47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Z47" s="3">
         <v>1400</v>
       </c>
       <c r="AA47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB47" s="3">
         <v>1300</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>1000</v>
       </c>
       <c r="AC47" s="3">
         <v>1000</v>
       </c>
       <c r="AD47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>990700</v>
+      </c>
+      <c r="E48" s="3">
         <v>989700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>973400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>913500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>925600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>938800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>952200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>922500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>925100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>905700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>919000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>889600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>884300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>891500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>922700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>895300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>896100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>909300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2270700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1002700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1014300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1030400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1025200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>547000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>538300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>535100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2315600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4080900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4092100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4097400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4046800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3902200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3954600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3985200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4010500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4040400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4049900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4094100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4074800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4064600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4071300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4096500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4098700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4142800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4150600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4171500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4206300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3974000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4048000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3830700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1276900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1264600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1235400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1218600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4038,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4124,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>595500</v>
+      </c>
+      <c r="E52" s="3">
         <v>610800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>586600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>618900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>620500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>702800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>672700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>670800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>697100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>698400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>794600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>790900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>754900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>753700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>778000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>731500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>687900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>681300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1015000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>624800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>735400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>733600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>696300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>657300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>694300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>710600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1532400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4296,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>11951700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11732100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11171300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10764700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11044200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10904800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10673100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10410200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10942100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10423300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10186400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9772200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9993700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10189200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9872700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9803800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9824500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9946000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9974300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9406900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9718200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10149100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9206300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6056800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5984300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6036300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6139300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4414,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4446,524 +4576,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1032700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1182800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1252200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1045700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1122200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1057400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1135000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1101400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1158000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1074400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>946700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>757200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>842200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>838400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>667000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>785700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>884500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>795500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>784200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>947200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>914100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>714200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>437700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>433500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>390900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>317400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1660500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1878600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>540800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>826300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1155100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1040400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>440800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>762000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1185800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>974400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>338300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>194100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>505900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>250200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>227700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>553600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1094200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>993800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>547700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>149400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>174500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>328900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>192600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>214200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>192500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>217300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>94200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1659500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1606900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2006600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1760200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1708400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1731500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1944500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1564200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1497700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1331300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1544000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1417000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1334800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1367900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1596100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1350200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1459300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1650200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1337900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1326600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1443000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1302600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>978700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>915900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>880600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1341300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4352700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4668300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3799600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3632200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3985700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3829300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3520300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3427600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3841500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3380100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2829000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2368300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2682900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2456500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2723900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2521500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3230100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3337600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2993400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2271500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2448300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2686000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2209400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1630600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1541900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1488800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1438200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3022000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2334000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2733200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2732500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2731700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2732400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2731700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2631700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2630800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2631400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2929500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3028300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3027500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3531800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3031100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3032400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="T61" s="3">
-        <v>2145000</v>
       </c>
       <c r="U61" s="3">
         <v>2145000</v>
       </c>
       <c r="V61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="W61" s="3">
         <v>2593300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2892900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2993200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2993000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1492900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1592300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1790400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1798800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1199600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1235300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1237600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1196400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1199500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1260900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1277400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1293900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1335700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1380500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1443700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1407200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1432400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1498200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1556300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1570600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1655200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1671600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1625500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1463800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1351300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1455200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1296800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>798100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>823400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>865700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>909300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5048,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5134,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5220,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8598700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8261400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7793400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7576500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7935700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7845700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7548800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7378800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7831400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7414700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7224600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6827700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7171500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7513800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7340400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7154600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7060900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7185000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6853200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6360500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6722000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7162500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6524500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3936500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3972400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4159000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4181600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5338,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5424,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5510,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5596,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5682,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>5637200</v>
+      </c>
+      <c r="E72" s="3">
         <v>5679200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5555900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5354800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5199100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5131800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5092900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4864900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4767900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4627000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4506400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4519300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4465100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4337900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4188800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4249000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4210500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4088400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4334300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4355100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4304700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4197300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3952400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3444600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3411700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3359100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3505500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5854,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5940,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6026,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3353000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3470700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3377900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3188200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3108500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3059100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3124300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3031400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3110700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3008600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2961800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2944500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2822200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2675400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2532300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2649200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2763600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2761000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3121100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3046400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2996200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2986600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2681800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2120300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2011900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1877300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1957700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6198,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E81" s="3">
         <v>195600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>273300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>120700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>133900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>207000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>192600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>157500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>202400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>182200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>49400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>111100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>183900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>206200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>90100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>174000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>215000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>41500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>55000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>129300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>265400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>530800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>54900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>74500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-124400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>15800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6407,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E83" s="3">
         <v>44700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>42400</v>
       </c>
       <c r="I83" s="3">
         <v>42400</v>
       </c>
       <c r="J83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K83" s="3">
         <v>43400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>39100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>25100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>22500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>23600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>35600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6579,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6665,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6751,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6837,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6923,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-863900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>618500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>397400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>175300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-608800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>575800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>316100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>231200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-303000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>340900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>234600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-328300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>458900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>255100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>51700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-277200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-45600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>220600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>271800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-78400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>59400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>295000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-34900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>109700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7041,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-110600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-48400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-44100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7213,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7299,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>27800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-228900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-69900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-76400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-56400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-93400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>45100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>14200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-31100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-38000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7417,8 +7650,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7426,7 +7660,7 @@
         <v>-72700</v>
       </c>
       <c r="E96" s="3">
-        <v>-66900</v>
+        <v>-72700</v>
       </c>
       <c r="F96" s="3">
         <v>-66900</v>
@@ -7435,46 +7669,46 @@
         <v>-66900</v>
       </c>
       <c r="H96" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-66800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-61000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-61900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-62000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-57200</v>
       </c>
       <c r="N96" s="3">
         <v>-57200</v>
       </c>
       <c r="O96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="P96" s="3">
         <v>-57100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-52000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-52300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-52800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-22300</v>
       </c>
       <c r="V96" s="3">
         <v>-22300</v>
@@ -7486,25 +7720,28 @@
         <v>-22300</v>
       </c>
       <c r="Y96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-22200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-22300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-22100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7589,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7675,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7761,262 +8004,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E100" s="3">
         <v>840300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-435100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-388000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>70200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>515500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-380900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-682900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>111200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>204700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-63900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-361300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-299900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>474800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-461800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>135700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>250400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>122200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-330300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-269100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>113900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1457400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-94500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-246300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>96500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-136600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>447100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-77600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>208200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-227700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>226400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-151700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>175800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-387500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>311800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-152200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>271800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-45600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-93500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>97100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-80600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>336300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-26100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-52200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-149900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-33300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>76700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>189200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-19400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>17100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>31900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-66500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>37100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FMC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,397 +662,410 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>981900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1014500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1344300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1622000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1377200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1452300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1350800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1413600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1194000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1242000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1195600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1152200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1084600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1155300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1250000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1197300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1014300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1206100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1192100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1099400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>923600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1154400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1107900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>979600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>646200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>656800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>596000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>688400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>628800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600700</v>
+      </c>
+      <c r="E9" s="3">
         <v>581700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>763000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>936400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>899700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>861300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>778100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>798900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>681200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>710200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>683200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>650800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>618200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>632600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>688500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>641300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>581900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>655600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>647400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>607700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>527100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>625600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>575500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>594800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>380300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>422400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>379800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>423200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>414200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>381200</v>
+      </c>
+      <c r="E10" s="3">
         <v>432800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>581300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>685600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>477500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>591000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>572700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>614700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>512800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>531800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>512400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>501400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>466400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>522700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>561500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>556000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>432400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>550500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>544700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>491700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>396500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>528800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>532400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>384800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>265900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>234400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>216200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>265200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>214600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,97 +1097,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E12" s="3">
         <v>87700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>78400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>84400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>78500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>79500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>71800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>85300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>79500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>74000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>84600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>71700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>64300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>67300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>76400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>77400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>73100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>71200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>76800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>70100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>75900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>64900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>51100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>30200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>32000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>28200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>36500</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,97 +1279,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-42000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>79500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>78500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>72500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>27200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>21700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>62900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>49800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>148700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-10600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>102800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>53200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>23400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>9200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>28700</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1440,8 +1463,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>881100</v>
+      </c>
+      <c r="E17" s="3">
         <v>882300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1039800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1227500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1166600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1216400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1047500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1135000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>977000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>953400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>934900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1005300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>888600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>887400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>958600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1085200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>854400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>938300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>910300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>921900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>818500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1021100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>782900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>906600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>572100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>590900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>524600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>646000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>558600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E18" s="3">
         <v>132200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>304500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>394500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>210600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>235900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>303300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>278600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>217000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>288600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>260700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>146900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>196000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>267900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>291400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>112100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>159900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>267800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>281800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>177500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>105100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>133300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>325000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>73000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>74100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>65900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>71400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>42400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1681,453 +1714,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-4600</v>
+        <v>-4200</v>
       </c>
       <c r="E20" s="3">
         <v>-4600</v>
       </c>
       <c r="F20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4800</v>
       </c>
       <c r="M20" s="3">
         <v>-4800</v>
       </c>
       <c r="N20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="O20" s="3">
         <v>-5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2200</v>
       </c>
       <c r="Q20" s="3">
         <v>-2200</v>
       </c>
       <c r="R20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-13200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E21" s="3">
         <v>175700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>344600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>435200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>253700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>274800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>341400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>315700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>255300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>326300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>298500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>225900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>305800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>328300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>197700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>301700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>315700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>235700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>144100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>171900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>359400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>85600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>102800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>91700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>93700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>54600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>96000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E22" s="3">
         <v>64500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>51400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>41800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>41600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>39500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>34500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>32800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>33400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>34400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>33900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>28700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>18400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>17200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>15700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>17100</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E23" s="3">
         <v>63100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>248500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>347600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>170500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>196700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>269100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>240300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>178800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>251200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>223500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>107500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>148900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>225000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>248400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>119500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>225000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>243900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>146100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>72900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>98700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>290700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>15100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>59300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>52000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>54400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>12100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E24" s="3">
         <v>9200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>54700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>29200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-10600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>22000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>60500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-52900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>9400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>2700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2215,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>53900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>207400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>335400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>134500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>142000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>226800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>223000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>170100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>217800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>191300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>130500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>195800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>213700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>110800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>194400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>207600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>156700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>50900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>99800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>230200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>68000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>70900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>48700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>45000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>9400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>51900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>207100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>328300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>136900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>144700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>222200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>228400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>167200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>217000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>190300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>129500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>194700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>213700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>111400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>192100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>205400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>153800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>48600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>96600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>226800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>67700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>70000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>47900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>44400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>8800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,97 +2540,103 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-21500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-11500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-55000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-16200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-10800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-15200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-35800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-9700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-14600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-8100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>8400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-18400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-7500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-33500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-21300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-18100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>9600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-112300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>6400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>32700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>38600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>463100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-15100</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>26600</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-168800</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>7000</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2660,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2749,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="E32" s="3">
         <v>4600</v>
       </c>
       <c r="F32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4800</v>
       </c>
       <c r="M32" s="3">
         <v>4800</v>
       </c>
       <c r="N32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O32" s="3">
         <v>5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2200</v>
       </c>
       <c r="Q32" s="3">
         <v>2200</v>
       </c>
       <c r="R32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>29200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>13200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>30400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>195600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>273300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>120700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>133900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>207000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>192600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>157500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>202400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>182200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>49400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>111100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>183900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>206200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>90100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>174000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>215000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>41500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>55000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>129300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>265400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>530800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>54900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>74500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-124400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>15800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3016,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>30400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>195600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>273300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>120700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>133900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>207000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>192600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>157500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>202400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>182200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>49400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>111100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>183900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>206200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>90100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>174000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>215000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>41500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>55000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>129300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>265400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>530800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>54900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>74500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-124400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>15800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3232,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3265,97 +3351,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>323800</v>
+      </c>
+      <c r="E41" s="3">
         <v>941500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>494400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>572000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>363800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>591500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>365100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>516800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>341000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>728500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>416700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>568900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>297100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>342700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>436200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>339100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>419700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>83400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>109500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>134400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>176500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>326400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>359700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>283000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>93800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>113200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>96100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>64200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>130700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3443,408 +3533,423 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2564500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2782800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3202100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2871400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2599900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2885100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2868600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2583700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2503500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2627300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2532800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2330300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2137900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2342400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2460100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2231200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2001100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2384000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2530200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2143800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1901900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2194100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2399700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2043500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1457600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1442300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1630600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1692500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1603400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1998600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2072300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1910900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1651600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1731500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1590400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1590700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1405700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1450500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1398100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1254700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1095600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1155500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1138500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1062700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1017000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1167400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1153400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1137100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1025500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>995400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>958700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1035200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>992500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>614800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>546300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>526400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>478900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>817400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>435400</v>
+      </c>
+      <c r="E45" s="3">
         <v>470200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>414400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>343600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>415400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>450400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>474000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>431400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>433200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>443400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>462900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>380800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>424700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>464600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>513000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>487500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>489400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>476200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>427300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>726500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>417400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>513800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>541000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>333700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1408000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1384000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1301100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>613600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>252600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5322300</v>
+      </c>
+      <c r="E46" s="3">
         <v>6266800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6021800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5438600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5110600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5517400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5298400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5053800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4728200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5197300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4667100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4375600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4015200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4288200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4472000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4074800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4077600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4097000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4204100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4030200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3491200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3993000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4335600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3652700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3574200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3485800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3554200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2849200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2804100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E47" s="3">
         <v>17800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>75300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>74900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>78500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>66600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>78200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1700</v>
       </c>
       <c r="P47" s="3">
         <v>1700</v>
       </c>
       <c r="Q47" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="R47" s="3">
         <v>700</v>
@@ -3862,212 +3967,221 @@
         <v>700</v>
       </c>
       <c r="W47" s="3">
+        <v>700</v>
+      </c>
+      <c r="X47" s="3">
         <v>81900</v>
-      </c>
-      <c r="X47" s="3">
-        <v>1500</v>
       </c>
       <c r="Y47" s="3">
         <v>1500</v>
       </c>
       <c r="Z47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="AA47" s="3">
         <v>1400</v>
       </c>
       <c r="AB47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC47" s="3">
         <v>1300</v>
-      </c>
-      <c r="AC47" s="3">
-        <v>1000</v>
       </c>
       <c r="AD47" s="3">
         <v>1000</v>
       </c>
       <c r="AE47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF47" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>995000</v>
+      </c>
+      <c r="E48" s="3">
         <v>990700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>989700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>973400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>913500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>925600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>938800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>952200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>922500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>925100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>905700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>919000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>889600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>884300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>891500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>922700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>895300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>896100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>909300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2270700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1002700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1014300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1030400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1025200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>547000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>538300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>535100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2315600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1031000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4037800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4080900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4092100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4097400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4046800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3902200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3954600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3985200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4010500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4040400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4049900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4094100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4074800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4064600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4071300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4096500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4098700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4142800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4150600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4171500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4206300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3974000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4048000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3830700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1276900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1264600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1235400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1218600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1647800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4155,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4244,97 +4361,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>582000</v>
+      </c>
+      <c r="E52" s="3">
         <v>595500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>610800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>586600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>618900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>620500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>702800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>672700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>670800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>697100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>698400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>794600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>790900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>754900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>753700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>778000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>731500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>687900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>681300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1015000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>624800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>735400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>733600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>696300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>657300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>694300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>710600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1532400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>725800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4422,97 +4545,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10956400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11951700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11732100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11171300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10764700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11044200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10904800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10673100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10410200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10942100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10423300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10186400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9772200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9993700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10189200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9872700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9803800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9824500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9946000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9974300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9406900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9718200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10149100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9206300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6056800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5984300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6036300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6139300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>6209800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4544,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4577,542 +4707,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>662500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1032700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1182800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1252200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1045700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1122200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1057400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1135000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1101400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1158000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1074400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>946700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>757200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>842200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>838400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>667000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>785700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>884500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>795500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>784200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>947200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>914100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>714200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>437700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>433500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>390900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>317400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>371600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1092800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1660500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1878600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>540800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>826300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1155100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1040400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>440800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>762000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1185800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>974400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>338300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>194100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>505900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>250200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>227700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>553600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1094200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>993800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>547700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>149400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>174500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>328900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>192600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>214200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>192500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>217300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>94200</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1691200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1659500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1606900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2006600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1760200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1708400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1731500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1944500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1564200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1497700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1331300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1544000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1417000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1334800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1367900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1596100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1350200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1459300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1650200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1337900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1326600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1443000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1302600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>978700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>915900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>880600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1341300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>874000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3446500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4352700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4668300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3799600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3632200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3985700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3829300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3520300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3427600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3841500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3380100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2829000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2368300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2682900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2456500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2723900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2521500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3230100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3337600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2993400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2271500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2448300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2686000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2209400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1630600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1541900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1488800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1438200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1308800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>3022900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3022000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2334000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2733200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2732500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2731700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2732400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2731700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2631700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2630800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2631400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2929500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3028300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3027500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3531800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3031100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3032400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2144300</v>
-      </c>
-      <c r="U61" s="3">
-        <v>2145000</v>
       </c>
       <c r="V61" s="3">
         <v>2145000</v>
       </c>
       <c r="W61" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="X61" s="3">
         <v>2593300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2892900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2993200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2993000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1492900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1592300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1790400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1798800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1913300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1172500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1199600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1235300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1237600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1196400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1199500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1260900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1277400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1293900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1335700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1380500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1443700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1407200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1432400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1498200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1556300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1570600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1655200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1671600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1625500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1463800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1351300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1455200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1296800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>798100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>823400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>865700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>909300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>867000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5200,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5289,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5378,97 +5533,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7665500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8598700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8261400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7793400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7576500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7935700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7845700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7548800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7378800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7831400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7414700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7224600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6827700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7171500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7513800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7340400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7154600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7060900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7185000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6853200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6360500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6722000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7162500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6524500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3936500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3972400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4159000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4181600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>4125500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5500,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5589,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5767,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5856,97 +6027,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>5561100</v>
+      </c>
+      <c r="E72" s="3">
         <v>5637200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5679200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5555900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5354800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5199100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5131800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5092900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4864900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4767900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4627000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4506400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4519300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4465100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4337900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4188800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4249000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4210500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4088400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4334300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4355100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4304700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4197300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3952400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3444600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3411700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3359100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>3505500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>3511800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6034,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6123,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6212,97 +6395,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3290900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3353000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3470700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3377900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3188200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3108500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3059100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3124300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3031400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3110700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3008600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2961800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2944500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2822200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2675400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2532300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2649200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2763600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2761000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3121100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3046400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2996200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2986600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2681800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2120300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2011900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1877300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1957700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2084300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6390,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>30400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>195600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>273300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>120700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>133900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>207000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>192600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>157500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>202400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>182200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>49400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>111100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>183900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>206200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>90100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>174000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>215000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>41500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>55000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>129300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>265400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>530800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>54900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>74500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-124400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>15800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>79600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6606,97 +6804,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E83" s="3">
         <v>48100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>42400</v>
       </c>
       <c r="J83" s="3">
         <v>42400</v>
       </c>
       <c r="K83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="L83" s="3">
         <v>43400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>39100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>25100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>22500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>23600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>35600</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>34300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6784,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6873,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6962,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7051,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7140,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E89" s="3">
         <v>117200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-863900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>618500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>397400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>175300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-608800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>575800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>316100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>231200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-303000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>340900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>234600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-328300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>458900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>255100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>51700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-277200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-45600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>220600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>271800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-78400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>16000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>59400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>295000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-34900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>109700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>163600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7262,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-110600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-48400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-16400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-12200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-8700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-44100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-82000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7440,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7529,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>27800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-228900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-69900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-76400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-56400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-93400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>45100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1284000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>14200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-32900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-31100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-38000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-37500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7651,19 +7884,20 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-72700</v>
+        <v>-72500</v>
       </c>
       <c r="E96" s="3">
         <v>-72700</v>
       </c>
       <c r="F96" s="3">
-        <v>-66900</v>
+        <v>-72700</v>
       </c>
       <c r="G96" s="3">
         <v>-66900</v>
@@ -7672,46 +7906,46 @@
         <v>-66900</v>
       </c>
       <c r="I96" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-66800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-61000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-61900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-62000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-62300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-57200</v>
       </c>
       <c r="O96" s="3">
         <v>-57200</v>
       </c>
       <c r="P96" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-57000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-52000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-52300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-52800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-53200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-22300</v>
       </c>
       <c r="W96" s="3">
         <v>-22300</v>
@@ -7723,25 +7957,28 @@
         <v>-22300</v>
       </c>
       <c r="Z96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-22300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-22100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-22200</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-22100</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7829,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7918,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8007,271 +8250,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-632500</v>
+      </c>
+      <c r="E100" s="3">
         <v>354300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>840300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-435100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-388000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>70200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>515500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-380900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-682900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>111200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>204700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-63900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-361300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-299900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>474800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-461800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>135700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-48500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>250400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>122200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-330300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-269100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>113900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1457400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-94500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-246300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>96500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-136600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-89300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1400</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-617700</v>
+      </c>
+      <c r="E102" s="3">
         <v>447100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-77600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>208200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-227700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>226400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-151700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>175800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-387500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>311800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-152200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>271800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-45600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-93500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>97100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-80600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>336300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-26100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-52200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-149900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-33300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>76700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>189200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-19400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>17100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>31900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-66500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>37100</v>
       </c>
     </row>
